--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/36_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/36_11R22.xlsx
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0008464570636233179</v>
+        <v>0.00675773967174312</v>
       </c>
       <c r="E2">
-        <v>0.07009297764934155</v>
+        <v>0.06814909375273842</v>
       </c>
       <c r="F2">
-        <v>0.04448455179163968</v>
+        <v>0.04544562900116306</v>
       </c>
       <c r="G2">
-        <v>0.04539466964219265</v>
+        <v>0.04625250516975796</v>
       </c>
       <c r="H2">
-        <v>0.02037722750575902</v>
+        <v>0.02407298430130625</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -716,43 +716,43 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.04850738180508758</v>
+        <v>0.04901211840271389</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1101160843398459</v>
+        <v>0.1036320709980235</v>
       </c>
       <c r="N2">
-        <v>0.1412450804082384</v>
+        <v>0.1312298651349139</v>
       </c>
       <c r="O2">
-        <v>0.06786809913577249</v>
+        <v>0.06617660035583717</v>
       </c>
       <c r="P2">
-        <v>0.03619626360227308</v>
+        <v>0.03809754521796602</v>
       </c>
       <c r="Q2">
-        <v>0.01548960142468087</v>
+        <v>0.01973979931495674</v>
       </c>
       <c r="R2">
-        <v>0.1332746214499288</v>
+        <v>0.124163556763623</v>
       </c>
       <c r="S2">
-        <v>0.07247048239457612</v>
+        <v>0.07025689981157519</v>
       </c>
       <c r="T2">
-        <v>0.1851876904402279</v>
+        <v>0.1701877262505141</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.005419270512626489</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.001744685337862029</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00165654882943001</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -770,22 +770,22 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.005782613102825118</v>
+        <v>0.0111339494890517</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.0001018502538536615</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.002391205088463252</v>
       </c>
       <c r="AG2">
-        <v>0.002381642793435917</v>
+        <v>0.008118777452729542</v>
       </c>
       <c r="AH2">
-        <v>0.0002845554505514655</v>
+        <v>0.006259578889150802</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.171702537436719</v>
+        <v>0.1742354184455104</v>
       </c>
       <c r="E3">
-        <v>0.001949443460812957</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.05826936416561582</v>
+        <v>0.0578070462280475</v>
       </c>
       <c r="G3">
-        <v>0.03383913379315021</v>
+        <v>0.03273173648275989</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.07604134795866979</v>
+        <v>0.07604829862742403</v>
       </c>
       <c r="L3">
-        <v>0.08210080009524807</v>
+        <v>0.08226775038432167</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.243783329372892</v>
+        <v>0.2482195011548685</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0806443918020239</v>
+        <v>0.08077288568139354</v>
       </c>
       <c r="R3">
-        <v>0.01067298868354193</v>
+        <v>0.0089538901271882</v>
       </c>
       <c r="S3">
-        <v>0.1706124962805226</v>
+        <v>0.1731165947909638</v>
       </c>
       <c r="T3">
-        <v>0.008889269952726517</v>
+        <v>0.007123072366088484</v>
       </c>
       <c r="U3">
-        <v>0.03965709155553353</v>
+        <v>0.03870331721501471</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02145489129396419</v>
+        <v>0.02002048849641911</v>
       </c>
       <c r="AC3">
-        <v>0.0003829141485795281</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2207149227007408</v>
+        <v>0.2010968914982971</v>
       </c>
       <c r="E4">
-        <v>0.008132993378711265</v>
+        <v>0.01490544060632895</v>
       </c>
       <c r="F4">
-        <v>0.06818760751432139</v>
+        <v>0.06750471738553267</v>
       </c>
       <c r="G4">
-        <v>0.05664690838283121</v>
+        <v>0.05739671092208224</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -942,37 +942,37 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02750203285179573</v>
+        <v>0.03186995670315262</v>
       </c>
       <c r="L4">
-        <v>0.1136939909426669</v>
+        <v>0.1073618189858041</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.003983506308799339</v>
       </c>
       <c r="N4">
-        <v>0.1917019104425311</v>
+        <v>0.1756856306995519</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00300453413719141</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.003401374211395484</v>
       </c>
       <c r="Q4">
-        <v>0.08658711917312777</v>
+        <v>0.08362006539456886</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.001748075775204997</v>
       </c>
       <c r="S4">
-        <v>0.1922159363556849</v>
+        <v>0.1761358440872627</v>
       </c>
       <c r="T4">
-        <v>0.004069317007811368</v>
+        <v>0.01134623968146063</v>
       </c>
       <c r="U4">
-        <v>0.01865310843509864</v>
+        <v>0.02411956097933575</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.001751053915940439</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01189415281467878</v>
+        <v>0.01819967984224239</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.0007468727978889866</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.007138821817080101</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.004537333655908219</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.001056764192830232</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.003389106402140555</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1037,16 +1037,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1710063744167687</v>
+        <v>0.1541628131484201</v>
       </c>
       <c r="F5">
-        <v>0.02667952771242</v>
+        <v>0.03222045530061862</v>
       </c>
       <c r="G5">
-        <v>0.07048842176554446</v>
+        <v>0.06923477354790811</v>
       </c>
       <c r="H5">
-        <v>0.04259321876820902</v>
+        <v>0.04566599958926767</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1058,49 +1058,49 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04776879471852993</v>
+        <v>0.05003886540747092</v>
       </c>
       <c r="M5">
-        <v>0.1148558486469529</v>
+        <v>0.1067209985233746</v>
       </c>
       <c r="N5">
-        <v>0.008975720043108143</v>
+        <v>0.01726243398042559</v>
       </c>
       <c r="O5">
-        <v>0.1738507635505282</v>
+        <v>0.1565660494521816</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00529814746444453</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.102983523309786</v>
+        <v>0.09669002107317089</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.001296359400966672</v>
       </c>
       <c r="T5">
-        <v>0.1883609295811709</v>
+        <v>0.1688257495630295</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03305416598677679</v>
+        <v>0.03760641390327744</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.006030833639307723</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.0005486790121896614</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.004116565498450706</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01938271150020498</v>
+        <v>0.02605534469217938</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.00552974626126021</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.008179395574524463</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.00590438203504703</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.002045972932484763</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03458282264795465</v>
+        <v>0.03727619252779396</v>
       </c>
       <c r="E6">
-        <v>0.02312423813842653</v>
+        <v>0.02755744078331953</v>
       </c>
       <c r="F6">
-        <v>0.08316488917773351</v>
+        <v>0.07848172218495612</v>
       </c>
       <c r="G6">
-        <v>0.09996811038135137</v>
+        <v>0.09273359904196728</v>
       </c>
       <c r="H6">
-        <v>0.02769317061367617</v>
+        <v>0.03143264198529128</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1168,67 +1168,67 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03538183398599539</v>
+        <v>0.03795388468331117</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.05953123838766115</v>
+        <v>0.05843652509684095</v>
       </c>
       <c r="N6">
-        <v>0.1970872778162309</v>
+        <v>0.1751065201601716</v>
       </c>
       <c r="O6">
-        <v>0.0618305601271338</v>
+        <v>0.06038672559045568</v>
       </c>
       <c r="P6">
-        <v>0.007059615658957061</v>
+        <v>0.01393201631515403</v>
       </c>
       <c r="Q6">
-        <v>0.01314662652846956</v>
+        <v>0.01909479601604271</v>
       </c>
       <c r="R6">
-        <v>0.1247741826188429</v>
+        <v>0.1137732010653421</v>
       </c>
       <c r="S6">
-        <v>0.03666306034347517</v>
+        <v>0.03904057395862865</v>
       </c>
       <c r="T6">
-        <v>0.1476565635511564</v>
+        <v>0.1331811985731258</v>
       </c>
       <c r="U6">
-        <v>0.01004633560979529</v>
+        <v>0.01646524279773821</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.00533943208636769</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.0001493223751211693</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.003050751023195148</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.001660938950354305</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.007831050865909574</v>
       </c>
       <c r="AC6">
-        <v>0.03828947441314022</v>
+        <v>0.04042003880995049</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.006696185108962536</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.225202911525729</v>
+        <v>0.1985473924213368</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.005101787419637196</v>
       </c>
       <c r="G7">
-        <v>0.08463639848483201</v>
+        <v>0.08050874997040595</v>
       </c>
       <c r="H7">
-        <v>0.06213092457403804</v>
+        <v>0.06161011237403859</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1284,64 +1284,64 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.004998536148869613</v>
+        <v>0.01363403739148512</v>
       </c>
       <c r="M7">
-        <v>0.02907979958222789</v>
+        <v>0.03385592084497761</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2043889317615568</v>
+        <v>0.1810691619223755</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.004600322539753047</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.007064602081749545</v>
       </c>
       <c r="R7">
-        <v>0.09745870825258381</v>
+        <v>0.09127609423561071</v>
       </c>
       <c r="S7">
-        <v>0.0170411829179481</v>
+        <v>0.02374667122856789</v>
       </c>
       <c r="T7">
-        <v>0.1645331426608941</v>
+        <v>0.1476008547311451</v>
       </c>
       <c r="U7">
-        <v>0.05968617361011624</v>
+        <v>0.05955716904728781</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.004199792936945584</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.0008077413672439459</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.001524316532890242</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.004257299147099615</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.0006508100865418415</v>
       </c>
       <c r="AC7">
-        <v>0.02122781639355187</v>
+        <v>0.02726233453420962</v>
       </c>
       <c r="AD7">
-        <v>0.02228541567167221</v>
+        <v>0.02815043782670638</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.000173241666950669</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.007330058415980378</v>
+        <v>0.01559189860110195</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.009209251091939272</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2311960427872575</v>
+        <v>0.2146729498946748</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.1020856942619145</v>
+        <v>0.09836674379242427</v>
       </c>
       <c r="H8">
-        <v>0.05676211570826685</v>
+        <v>0.05753799901123144</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.005858630842331806</v>
       </c>
       <c r="M8">
-        <v>0.004773733427648691</v>
+        <v>0.01070541298296828</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2690623356113953</v>
+        <v>0.2487839635185585</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.09696313681208006</v>
+        <v>0.09375220104402392</v>
       </c>
       <c r="S8">
-        <v>0.00732410924117459</v>
+        <v>0.0130028627102294</v>
       </c>
       <c r="T8">
-        <v>0.1253659044009162</v>
+        <v>0.1193382069590577</v>
       </c>
       <c r="U8">
-        <v>0.03858332811513485</v>
+        <v>0.04116203968152032</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.0007725042661617533</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.001124480252044533</v>
+        <v>0.00741806385248554</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.006387738020545844</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.05213653800856637</v>
+        <v>0.05337114949507714</v>
       </c>
       <c r="AD8">
-        <v>0.01462258137360079</v>
+        <v>0.01957753014596072</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.003123374643741449</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.006168629139007296</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1492,16 +1492,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2202087264139969</v>
+        <v>0.2012995936385467</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1219003126717404</v>
+        <v>0.1146834012171301</v>
       </c>
       <c r="I9">
-        <v>0.05821697051313654</v>
+        <v>0.05857417914270698</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.00574363891501226</v>
+        <v>0.01234171527026523</v>
       </c>
       <c r="M9">
-        <v>0.003041273076089028</v>
+        <v>0.009960752842055219</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.2782375688501518</v>
+        <v>0.2524268287460093</v>
       </c>
       <c r="Q9">
-        <v>0.003060000511148568</v>
+        <v>0.00997725294674544</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.09274432298921775</v>
+        <v>0.0889950525148591</v>
       </c>
       <c r="T9">
-        <v>0.01566889270738303</v>
+        <v>0.02108651807590603</v>
       </c>
       <c r="U9">
-        <v>0.0883386168738715</v>
+        <v>0.08511333502891195</v>
       </c>
       <c r="V9">
-        <v>0.03462188188656019</v>
+        <v>0.0377853508127321</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.00385626589588992</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.004792783087924266</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.004342551124139999</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1564,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.06244819530495407</v>
+        <v>0.06230216708183904</v>
       </c>
       <c r="AE9">
-        <v>0.01576959928673783</v>
+        <v>0.02117524721030511</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.004995023121101165</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.005275830795632859</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>0.001016151447299478</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1599,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2207468572998182</v>
+        <v>0.2058690575867393</v>
       </c>
       <c r="E10">
-        <v>0.007867974977957057</v>
+        <v>0.01385346177905567</v>
       </c>
       <c r="F10">
-        <v>0.1290799369726891</v>
+        <v>0.1231859932522663</v>
       </c>
       <c r="G10">
-        <v>0.04572311226363543</v>
+        <v>0.04799859003701601</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.002534246016573016</v>
       </c>
       <c r="L10">
-        <v>0.009590222319912387</v>
+        <v>0.01540691952877156</v>
       </c>
       <c r="M10">
-        <v>0.04737466716761782</v>
+        <v>0.0494882835915782</v>
       </c>
       <c r="N10">
-        <v>0.2070588863754649</v>
+        <v>0.1935225821460045</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1638,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1271959763178463</v>
+        <v>0.121486670972516</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.1268019710605093</v>
+        <v>0.1211312803700581</v>
       </c>
       <c r="T10">
-        <v>0.004750276335856275</v>
+        <v>0.01104131453465843</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.0001920229346389383</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1659,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.005801610631584866</v>
+        <v>0.01198961236009588</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.002619800027992029</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.06800850827710833</v>
+        <v>0.0680998962195022</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.005342565659115546</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.002844496327911531</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.003393206655507006</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2708439866842711</v>
+        <v>0.2840343507306428</v>
       </c>
       <c r="G11">
-        <v>0.01480126652502122</v>
+        <v>0.01133975903524311</v>
       </c>
       <c r="H11">
-        <v>0.1324187584258339</v>
+        <v>0.1366065657235191</v>
       </c>
       <c r="I11">
-        <v>0.04710198116258236</v>
+        <v>0.04574116745677893</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01531158741733366</v>
+        <v>0.01188326891233009</v>
       </c>
       <c r="M11">
-        <v>0.01599222904278976</v>
+        <v>0.01260817642006632</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.004153960572663908</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.2191340589117376</v>
+        <v>0.2289614408984115</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1757,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.09390948032424108</v>
+        <v>0.09559281668247228</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.09394961671592493</v>
+        <v>0.09563556336527408</v>
       </c>
       <c r="V11">
-        <v>0.005761571995402128</v>
+        <v>0.00171216326812884</v>
       </c>
       <c r="W11">
-        <v>0.002908731630060016</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1790,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.06738562608802899</v>
+        <v>0.06734396978444868</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.01205716655600415</v>
+        <v>0.008417195096861847</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.004269977948105305</v>
+        <v>0.000123562625822308</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1951,106 +1951,106 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0008464570636233179</v>
+        <v>0.00675773967174312</v>
       </c>
       <c r="E2">
-        <v>0.07093943471296488</v>
+        <v>0.07490683342448154</v>
       </c>
       <c r="F2">
-        <v>0.1154239865046046</v>
+        <v>0.1203524624256446</v>
       </c>
       <c r="G2">
-        <v>0.1608186561467972</v>
+        <v>0.1666049675954026</v>
       </c>
       <c r="H2">
-        <v>0.1811958836525562</v>
+        <v>0.1906779518967088</v>
       </c>
       <c r="I2">
-        <v>0.1811958836525562</v>
+        <v>0.1906779518967088</v>
       </c>
       <c r="J2">
-        <v>0.1811958836525562</v>
+        <v>0.1906779518967088</v>
       </c>
       <c r="K2">
-        <v>0.2297032654576438</v>
+        <v>0.2396900702994227</v>
       </c>
       <c r="L2">
-        <v>0.2297032654576438</v>
+        <v>0.2396900702994227</v>
       </c>
       <c r="M2">
-        <v>0.3398193497974897</v>
+        <v>0.3433221412974462</v>
       </c>
       <c r="N2">
-        <v>0.4810644302057281</v>
+        <v>0.4745520064323601</v>
       </c>
       <c r="O2">
-        <v>0.5489325293415006</v>
+        <v>0.5407286067881972</v>
       </c>
       <c r="P2">
-        <v>0.5851287929437737</v>
+        <v>0.5788261520061633</v>
       </c>
       <c r="Q2">
-        <v>0.6006183943684547</v>
+        <v>0.59856595132112</v>
       </c>
       <c r="R2">
-        <v>0.7338930158183834</v>
+        <v>0.722729508084743</v>
       </c>
       <c r="S2">
-        <v>0.8063634982129595</v>
+        <v>0.7929864078963182</v>
       </c>
       <c r="T2">
-        <v>0.9915511886531874</v>
+        <v>0.9631741341468324</v>
       </c>
       <c r="U2">
-        <v>0.9915511886531874</v>
+        <v>0.9685934046594589</v>
       </c>
       <c r="V2">
-        <v>0.9915511886531874</v>
+        <v>0.9703380899973209</v>
       </c>
       <c r="W2">
-        <v>0.9915511886531874</v>
+        <v>0.9719946388267509</v>
       </c>
       <c r="X2">
-        <v>0.9915511886531874</v>
+        <v>0.9719946388267509</v>
       </c>
       <c r="Y2">
-        <v>0.9915511886531874</v>
+        <v>0.9719946388267509</v>
       </c>
       <c r="Z2">
-        <v>0.9915511886531874</v>
+        <v>0.9719946388267509</v>
       </c>
       <c r="AA2">
-        <v>0.9915511886531874</v>
+        <v>0.9719946388267509</v>
       </c>
       <c r="AB2">
-        <v>0.9915511886531874</v>
+        <v>0.9719946388267509</v>
       </c>
       <c r="AC2">
-        <v>0.9973338017560125</v>
+        <v>0.9831285883158025</v>
       </c>
       <c r="AD2">
-        <v>0.9973338017560125</v>
+        <v>0.9831285883158025</v>
       </c>
       <c r="AE2">
-        <v>0.9973338017560125</v>
+        <v>0.9832304385696562</v>
       </c>
       <c r="AF2">
-        <v>0.9973338017560125</v>
+        <v>0.9856216436581194</v>
       </c>
       <c r="AG2">
-        <v>0.9997154445494484</v>
+        <v>0.9937404211108489</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2064,106 +2064,106 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.171702537436719</v>
+        <v>0.1742354184455104</v>
       </c>
       <c r="E3">
-        <v>0.1736519808975319</v>
+        <v>0.1742354184455104</v>
       </c>
       <c r="F3">
-        <v>0.2319213450631478</v>
+        <v>0.2320424646735579</v>
       </c>
       <c r="G3">
-        <v>0.265760478856298</v>
+        <v>0.2647742011563178</v>
       </c>
       <c r="H3">
-        <v>0.265760478856298</v>
+        <v>0.2647742011563178</v>
       </c>
       <c r="I3">
-        <v>0.265760478856298</v>
+        <v>0.2647742011563178</v>
       </c>
       <c r="J3">
-        <v>0.265760478856298</v>
+        <v>0.2647742011563178</v>
       </c>
       <c r="K3">
-        <v>0.3418018268149678</v>
+        <v>0.3408224997837418</v>
       </c>
       <c r="L3">
-        <v>0.4239026269102159</v>
+        <v>0.4230902501680635</v>
       </c>
       <c r="M3">
-        <v>0.4239026269102159</v>
+        <v>0.4230902501680635</v>
       </c>
       <c r="N3">
-        <v>0.6676859562831079</v>
+        <v>0.671309751322932</v>
       </c>
       <c r="O3">
-        <v>0.6676859562831079</v>
+        <v>0.671309751322932</v>
       </c>
       <c r="P3">
-        <v>0.6676859562831079</v>
+        <v>0.671309751322932</v>
       </c>
       <c r="Q3">
-        <v>0.7483303480851318</v>
+        <v>0.7520826370043255</v>
       </c>
       <c r="R3">
-        <v>0.7590033367686737</v>
+        <v>0.7610365271315137</v>
       </c>
       <c r="S3">
-        <v>0.9296158330491963</v>
+        <v>0.9341531219224776</v>
       </c>
       <c r="T3">
-        <v>0.9385051030019228</v>
+        <v>0.941276194288566</v>
       </c>
       <c r="U3">
-        <v>0.9781621945574563</v>
+        <v>0.9799795115035808</v>
       </c>
       <c r="V3">
-        <v>0.9781621945574563</v>
+        <v>0.9799795115035808</v>
       </c>
       <c r="W3">
-        <v>0.9781621945574563</v>
+        <v>0.9799795115035808</v>
       </c>
       <c r="X3">
-        <v>0.9781621945574563</v>
+        <v>0.9799795115035808</v>
       </c>
       <c r="Y3">
-        <v>0.9781621945574563</v>
+        <v>0.9799795115035808</v>
       </c>
       <c r="Z3">
-        <v>0.9781621945574563</v>
+        <v>0.9799795115035808</v>
       </c>
       <c r="AA3">
-        <v>0.9781621945574563</v>
+        <v>0.9799795115035808</v>
       </c>
       <c r="AB3">
-        <v>0.9996170858514205</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2177,106 +2177,106 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2207149227007408</v>
+        <v>0.2010968914982971</v>
       </c>
       <c r="E4">
-        <v>0.228847916079452</v>
+        <v>0.2160023321046261</v>
       </c>
       <c r="F4">
-        <v>0.2970355235937734</v>
+        <v>0.2835070494901588</v>
       </c>
       <c r="G4">
-        <v>0.3536824319766046</v>
+        <v>0.340903760412241</v>
       </c>
       <c r="H4">
-        <v>0.3536824319766046</v>
+        <v>0.340903760412241</v>
       </c>
       <c r="I4">
-        <v>0.3536824319766046</v>
+        <v>0.340903760412241</v>
       </c>
       <c r="J4">
-        <v>0.3536824319766046</v>
+        <v>0.340903760412241</v>
       </c>
       <c r="K4">
-        <v>0.3811844648284003</v>
+        <v>0.3727737171153936</v>
       </c>
       <c r="L4">
-        <v>0.4948784557710672</v>
+        <v>0.4801355361011978</v>
       </c>
       <c r="M4">
-        <v>0.4948784557710672</v>
+        <v>0.4841190424099971</v>
       </c>
       <c r="N4">
-        <v>0.6865803662135983</v>
+        <v>0.659804673109549</v>
       </c>
       <c r="O4">
-        <v>0.6865803662135983</v>
+        <v>0.6628092072467404</v>
       </c>
       <c r="P4">
-        <v>0.6865803662135983</v>
+        <v>0.6662105814581359</v>
       </c>
       <c r="Q4">
-        <v>0.7731674853867261</v>
+        <v>0.7498306468527048</v>
       </c>
       <c r="R4">
-        <v>0.7731674853867261</v>
+        <v>0.7515787226279098</v>
       </c>
       <c r="S4">
-        <v>0.965383421742411</v>
+        <v>0.9277145667151725</v>
       </c>
       <c r="T4">
-        <v>0.9694527387502223</v>
+        <v>0.9390608063966331</v>
       </c>
       <c r="U4">
-        <v>0.9881058471853209</v>
+        <v>0.9631803673759689</v>
       </c>
       <c r="V4">
-        <v>0.9881058471853209</v>
+        <v>0.9631803673759689</v>
       </c>
       <c r="W4">
-        <v>0.9881058471853209</v>
+        <v>0.9631803673759689</v>
       </c>
       <c r="X4">
-        <v>0.9881058471853209</v>
+        <v>0.9649314212919093</v>
       </c>
       <c r="Y4">
-        <v>0.9881058471853209</v>
+        <v>0.9649314212919093</v>
       </c>
       <c r="Z4">
-        <v>0.9881058471853209</v>
+        <v>0.9649314212919093</v>
       </c>
       <c r="AA4">
-        <v>0.9881058471853209</v>
+        <v>0.9649314212919093</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999997</v>
+        <v>0.9831311011341517</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999997</v>
+        <v>0.9838779739320407</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999997</v>
+        <v>0.9910167957491208</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999997</v>
+        <v>0.9955541294050291</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999997</v>
+        <v>0.9966108935978593</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2293,97 +2293,97 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1710063744167687</v>
+        <v>0.1541628131484201</v>
       </c>
       <c r="F5">
-        <v>0.1976859021291887</v>
+        <v>0.1863832684490387</v>
       </c>
       <c r="G5">
-        <v>0.2681743238947331</v>
+        <v>0.2556180419969468</v>
       </c>
       <c r="H5">
-        <v>0.3107675426629422</v>
+        <v>0.3012840415862145</v>
       </c>
       <c r="I5">
-        <v>0.3107675426629422</v>
+        <v>0.3012840415862145</v>
       </c>
       <c r="J5">
-        <v>0.3107675426629422</v>
+        <v>0.3012840415862145</v>
       </c>
       <c r="K5">
-        <v>0.3107675426629422</v>
+        <v>0.3012840415862145</v>
       </c>
       <c r="L5">
-        <v>0.3585363373814721</v>
+        <v>0.3513229069936854</v>
       </c>
       <c r="M5">
-        <v>0.473392186028425</v>
+        <v>0.45804390551706</v>
       </c>
       <c r="N5">
-        <v>0.4823679060715331</v>
+        <v>0.4753063394974856</v>
       </c>
       <c r="O5">
-        <v>0.6562186696220613</v>
+        <v>0.6318723889496671</v>
       </c>
       <c r="P5">
-        <v>0.6562186696220613</v>
+        <v>0.6371705364141117</v>
       </c>
       <c r="Q5">
-        <v>0.6562186696220613</v>
+        <v>0.6371705364141117</v>
       </c>
       <c r="R5">
-        <v>0.7592021929318473</v>
+        <v>0.7338605574872826</v>
       </c>
       <c r="S5">
-        <v>0.7592021929318473</v>
+        <v>0.7351569168882492</v>
       </c>
       <c r="T5">
-        <v>0.9475631225130182</v>
+        <v>0.9039826664512788</v>
       </c>
       <c r="U5">
-        <v>0.9475631225130182</v>
+        <v>0.9039826664512788</v>
       </c>
       <c r="V5">
-        <v>0.980617288499795</v>
+        <v>0.9415890803545562</v>
       </c>
       <c r="W5">
-        <v>0.980617288499795</v>
+        <v>0.9476199139938639</v>
       </c>
       <c r="X5">
-        <v>0.980617288499795</v>
+        <v>0.9476199139938639</v>
       </c>
       <c r="Y5">
-        <v>0.980617288499795</v>
+        <v>0.9481685930060536</v>
       </c>
       <c r="Z5">
-        <v>0.980617288499795</v>
+        <v>0.9522851585045043</v>
       </c>
       <c r="AA5">
-        <v>0.980617288499795</v>
+        <v>0.9522851585045043</v>
       </c>
       <c r="AB5">
-        <v>0.980617288499795</v>
+        <v>0.9522851585045043</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9783405031966838</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.983870249457944</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9920496450324685</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9920496450324685</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9920496450324685</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9979540270675156</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9979540270675156</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -2403,85 +2403,85 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03458282264795465</v>
+        <v>0.03727619252779396</v>
       </c>
       <c r="E6">
-        <v>0.05770706078638118</v>
+        <v>0.0648336333111135</v>
       </c>
       <c r="F6">
-        <v>0.1408719499641147</v>
+        <v>0.1433153554960696</v>
       </c>
       <c r="G6">
-        <v>0.2408400603454661</v>
+        <v>0.2360489545380369</v>
       </c>
       <c r="H6">
-        <v>0.2685332309591422</v>
+        <v>0.2674815965233281</v>
       </c>
       <c r="I6">
-        <v>0.2685332309591422</v>
+        <v>0.2674815965233281</v>
       </c>
       <c r="J6">
-        <v>0.2685332309591422</v>
+        <v>0.2674815965233281</v>
       </c>
       <c r="K6">
-        <v>0.3039150649451376</v>
+        <v>0.3054354812066393</v>
       </c>
       <c r="L6">
-        <v>0.3039150649451376</v>
+        <v>0.3054354812066393</v>
       </c>
       <c r="M6">
-        <v>0.3634463033327988</v>
+        <v>0.3638720063034803</v>
       </c>
       <c r="N6">
-        <v>0.5605335811490296</v>
+        <v>0.5389785264636519</v>
       </c>
       <c r="O6">
-        <v>0.6223641412761635</v>
+        <v>0.5993652520541075</v>
       </c>
       <c r="P6">
-        <v>0.6294237569351205</v>
+        <v>0.6132972683692616</v>
       </c>
       <c r="Q6">
-        <v>0.6425703834635901</v>
+        <v>0.6323920643853043</v>
       </c>
       <c r="R6">
-        <v>0.7673445660824331</v>
+        <v>0.7461652654506464</v>
       </c>
       <c r="S6">
-        <v>0.8040076264259083</v>
+        <v>0.7852058394092751</v>
       </c>
       <c r="T6">
-        <v>0.9516641899770647</v>
+        <v>0.9183870379824008</v>
       </c>
       <c r="U6">
-        <v>0.96171052558686</v>
+        <v>0.934852280780139</v>
       </c>
       <c r="V6">
-        <v>0.96171052558686</v>
+        <v>0.9401917128665067</v>
       </c>
       <c r="W6">
-        <v>0.96171052558686</v>
+        <v>0.9403410352416279</v>
       </c>
       <c r="X6">
-        <v>0.96171052558686</v>
+        <v>0.9403410352416279</v>
       </c>
       <c r="Y6">
-        <v>0.96171052558686</v>
+        <v>0.9433917862648231</v>
       </c>
       <c r="Z6">
-        <v>0.96171052558686</v>
+        <v>0.9450527252151775</v>
       </c>
       <c r="AA6">
-        <v>0.96171052558686</v>
+        <v>0.9450527252151775</v>
       </c>
       <c r="AB6">
-        <v>0.96171052558686</v>
+        <v>0.9528837760810871</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9933038148910376</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9933038148910376</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -2519,94 +2519,94 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.225202911525729</v>
+        <v>0.1985473924213368</v>
       </c>
       <c r="F7">
-        <v>0.225202911525729</v>
+        <v>0.203649179840974</v>
       </c>
       <c r="G7">
-        <v>0.3098393100105611</v>
+        <v>0.2841579298113799</v>
       </c>
       <c r="H7">
-        <v>0.3719702345845991</v>
+        <v>0.3457680421854185</v>
       </c>
       <c r="I7">
-        <v>0.3719702345845991</v>
+        <v>0.3457680421854185</v>
       </c>
       <c r="J7">
-        <v>0.3719702345845991</v>
+        <v>0.3457680421854185</v>
       </c>
       <c r="K7">
-        <v>0.3719702345845991</v>
+        <v>0.3457680421854185</v>
       </c>
       <c r="L7">
-        <v>0.3769687707334687</v>
+        <v>0.3594020795769036</v>
       </c>
       <c r="M7">
-        <v>0.4060485703156966</v>
+        <v>0.3932580004218812</v>
       </c>
       <c r="N7">
-        <v>0.4060485703156966</v>
+        <v>0.3932580004218812</v>
       </c>
       <c r="O7">
-        <v>0.6104375020772534</v>
+        <v>0.5743271623442567</v>
       </c>
       <c r="P7">
-        <v>0.6104375020772534</v>
+        <v>0.5789274848840098</v>
       </c>
       <c r="Q7">
-        <v>0.6104375020772534</v>
+        <v>0.5859920869657593</v>
       </c>
       <c r="R7">
-        <v>0.7078962103298373</v>
+        <v>0.67726818120137</v>
       </c>
       <c r="S7">
-        <v>0.7249373932477854</v>
+        <v>0.7010148524299379</v>
       </c>
       <c r="T7">
-        <v>0.8894705359086794</v>
+        <v>0.848615707161083</v>
       </c>
       <c r="U7">
-        <v>0.9491567095187956</v>
+        <v>0.9081728762083708</v>
       </c>
       <c r="V7">
-        <v>0.9491567095187956</v>
+        <v>0.9123726691453165</v>
       </c>
       <c r="W7">
-        <v>0.9491567095187956</v>
+        <v>0.9123726691453165</v>
       </c>
       <c r="X7">
-        <v>0.9491567095187956</v>
+        <v>0.9131804105125604</v>
       </c>
       <c r="Y7">
-        <v>0.9491567095187956</v>
+        <v>0.9147047270454506</v>
       </c>
       <c r="Z7">
-        <v>0.9491567095187956</v>
+        <v>0.9189620261925502</v>
       </c>
       <c r="AA7">
-        <v>0.9491567095187956</v>
+        <v>0.9189620261925502</v>
       </c>
       <c r="AB7">
-        <v>0.9491567095187956</v>
+        <v>0.9196128362790921</v>
       </c>
       <c r="AC7">
-        <v>0.9703845259123475</v>
+        <v>0.9468751708133017</v>
       </c>
       <c r="AD7">
-        <v>0.9926699415840197</v>
+        <v>0.9750256086400081</v>
       </c>
       <c r="AE7">
-        <v>0.9926699415840197</v>
+        <v>0.9751988503069587</v>
       </c>
       <c r="AF7">
-        <v>0.9926699415840197</v>
+        <v>0.9751988503069587</v>
       </c>
       <c r="AG7">
-        <v>0.9926699415840197</v>
+        <v>0.9751988503069587</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9907907489080607</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2632,91 +2632,91 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2311960427872575</v>
+        <v>0.2146729498946748</v>
       </c>
       <c r="F8">
-        <v>0.2311960427872575</v>
+        <v>0.2146729498946748</v>
       </c>
       <c r="G8">
-        <v>0.333281737049172</v>
+        <v>0.3130396936870991</v>
       </c>
       <c r="H8">
-        <v>0.3900438527574388</v>
+        <v>0.3705776926983305</v>
       </c>
       <c r="I8">
-        <v>0.3900438527574388</v>
+        <v>0.3705776926983305</v>
       </c>
       <c r="J8">
-        <v>0.3900438527574388</v>
+        <v>0.3705776926983305</v>
       </c>
       <c r="K8">
-        <v>0.3900438527574388</v>
+        <v>0.3705776926983305</v>
       </c>
       <c r="L8">
-        <v>0.3900438527574388</v>
+        <v>0.3764363235406623</v>
       </c>
       <c r="M8">
-        <v>0.3948175861850875</v>
+        <v>0.3871417365236306</v>
       </c>
       <c r="N8">
-        <v>0.3948175861850875</v>
+        <v>0.3871417365236306</v>
       </c>
       <c r="O8">
-        <v>0.6638799217964828</v>
+        <v>0.6359257000421891</v>
       </c>
       <c r="P8">
-        <v>0.6638799217964828</v>
+        <v>0.6359257000421891</v>
       </c>
       <c r="Q8">
-        <v>0.6638799217964828</v>
+        <v>0.6359257000421891</v>
       </c>
       <c r="R8">
-        <v>0.7608430586085628</v>
+        <v>0.729677901086213</v>
       </c>
       <c r="S8">
-        <v>0.7681671678497374</v>
+        <v>0.7426807637964424</v>
       </c>
       <c r="T8">
-        <v>0.8935330722506536</v>
+        <v>0.8620189707555002</v>
       </c>
       <c r="U8">
-        <v>0.9321164003657885</v>
+        <v>0.9031810104370205</v>
       </c>
       <c r="V8">
-        <v>0.9321164003657885</v>
+        <v>0.9039535147031822</v>
       </c>
       <c r="W8">
-        <v>0.9321164003657885</v>
+        <v>0.9039535147031822</v>
       </c>
       <c r="X8">
-        <v>0.9321164003657885</v>
+        <v>0.9039535147031822</v>
       </c>
       <c r="Y8">
-        <v>0.9332408806178329</v>
+        <v>0.9113715785556677</v>
       </c>
       <c r="Z8">
-        <v>0.9332408806178329</v>
+        <v>0.9177593165762136</v>
       </c>
       <c r="AA8">
-        <v>0.9332408806178329</v>
+        <v>0.9177593165762136</v>
       </c>
       <c r="AB8">
-        <v>0.9332408806178329</v>
+        <v>0.9177593165762136</v>
       </c>
       <c r="AC8">
-        <v>0.9853774186263993</v>
+        <v>0.9711304660712907</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0.9907079962172515</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.9938313708609929</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9938313708609929</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9938313708609929</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -2748,100 +2748,100 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2202087264139969</v>
+        <v>0.2012995936385467</v>
       </c>
       <c r="G9">
-        <v>0.2202087264139969</v>
+        <v>0.2012995936385467</v>
       </c>
       <c r="H9">
-        <v>0.3421090390857373</v>
+        <v>0.3159829948556768</v>
       </c>
       <c r="I9">
-        <v>0.4003260095988739</v>
+        <v>0.3745571739983838</v>
       </c>
       <c r="J9">
-        <v>0.4003260095988739</v>
+        <v>0.3745571739983838</v>
       </c>
       <c r="K9">
-        <v>0.4003260095988739</v>
+        <v>0.3745571739983838</v>
       </c>
       <c r="L9">
-        <v>0.4060696485138862</v>
+        <v>0.386898889268649</v>
       </c>
       <c r="M9">
-        <v>0.4091109215899752</v>
+        <v>0.3968596421107042</v>
       </c>
       <c r="N9">
-        <v>0.4091109215899752</v>
+        <v>0.3968596421107042</v>
       </c>
       <c r="O9">
-        <v>0.4091109215899752</v>
+        <v>0.3968596421107042</v>
       </c>
       <c r="P9">
-        <v>0.687348490440127</v>
+        <v>0.6492864708567135</v>
       </c>
       <c r="Q9">
-        <v>0.6904084909512755</v>
+        <v>0.659263723803459</v>
       </c>
       <c r="R9">
-        <v>0.6904084909512755</v>
+        <v>0.659263723803459</v>
       </c>
       <c r="S9">
-        <v>0.7831528139404933</v>
+        <v>0.7482587763183181</v>
       </c>
       <c r="T9">
-        <v>0.7988217066478763</v>
+        <v>0.7693452943942241</v>
       </c>
       <c r="U9">
-        <v>0.8871603235217478</v>
+        <v>0.854458629423136</v>
       </c>
       <c r="V9">
-        <v>0.921782205408308</v>
+        <v>0.8922439802358682</v>
       </c>
       <c r="W9">
-        <v>0.921782205408308</v>
+        <v>0.8961002461317581</v>
       </c>
       <c r="X9">
-        <v>0.921782205408308</v>
+        <v>0.8961002461317581</v>
       </c>
       <c r="Y9">
-        <v>0.921782205408308</v>
+        <v>0.8961002461317581</v>
       </c>
       <c r="Z9">
-        <v>0.921782205408308</v>
+        <v>0.9008930292196824</v>
       </c>
       <c r="AA9">
-        <v>0.921782205408308</v>
+        <v>0.9052355803438223</v>
       </c>
       <c r="AB9">
-        <v>0.921782205408308</v>
+        <v>0.9052355803438223</v>
       </c>
       <c r="AC9">
-        <v>0.921782205408308</v>
+        <v>0.9052355803438223</v>
       </c>
       <c r="AD9">
-        <v>0.9842304007132621</v>
+        <v>0.9675377474256613</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999999</v>
+        <v>0.9887129946359665</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999999</v>
+        <v>0.9937080177570676</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999999</v>
+        <v>0.9937080177570676</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999999</v>
+        <v>0.9937080177570676</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>0.9989838485527005</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999999</v>
+        <v>0.9989838485527005</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -2855,91 +2855,91 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2207468572998182</v>
+        <v>0.2058690575867393</v>
       </c>
       <c r="E10">
-        <v>0.2286148322777752</v>
+        <v>0.219722519365795</v>
       </c>
       <c r="F10">
-        <v>0.3576947692504643</v>
+        <v>0.3429085126180612</v>
       </c>
       <c r="G10">
-        <v>0.4034178815140997</v>
+        <v>0.3909071026550772</v>
       </c>
       <c r="H10">
-        <v>0.4034178815140997</v>
+        <v>0.3909071026550772</v>
       </c>
       <c r="I10">
-        <v>0.4034178815140997</v>
+        <v>0.3909071026550772</v>
       </c>
       <c r="J10">
-        <v>0.4034178815140997</v>
+        <v>0.3909071026550772</v>
       </c>
       <c r="K10">
-        <v>0.4034178815140997</v>
+        <v>0.3934413486716503</v>
       </c>
       <c r="L10">
-        <v>0.4130081038340122</v>
+        <v>0.4088482682004218</v>
       </c>
       <c r="M10">
-        <v>0.4603827710016299</v>
+        <v>0.458336551792</v>
       </c>
       <c r="N10">
-        <v>0.6674416573770949</v>
+        <v>0.6518591339380044</v>
       </c>
       <c r="O10">
-        <v>0.6674416573770949</v>
+        <v>0.6518591339380044</v>
       </c>
       <c r="P10">
-        <v>0.6674416573770949</v>
+        <v>0.6518591339380044</v>
       </c>
       <c r="Q10">
-        <v>0.7946376336949412</v>
+        <v>0.7733458049105204</v>
       </c>
       <c r="R10">
-        <v>0.7946376336949412</v>
+        <v>0.7733458049105204</v>
       </c>
       <c r="S10">
-        <v>0.9214396047554505</v>
+        <v>0.8944770852805786</v>
       </c>
       <c r="T10">
-        <v>0.9261898810913067</v>
+        <v>0.905518399815237</v>
       </c>
       <c r="U10">
-        <v>0.9261898810913067</v>
+        <v>0.9057104227498759</v>
       </c>
       <c r="V10">
-        <v>0.9261898810913067</v>
+        <v>0.9057104227498759</v>
       </c>
       <c r="W10">
-        <v>0.9261898810913067</v>
+        <v>0.9057104227498759</v>
       </c>
       <c r="X10">
-        <v>0.9319914917228916</v>
+        <v>0.9177000351099718</v>
       </c>
       <c r="Y10">
-        <v>0.9319914917228916</v>
+        <v>0.9203198351379638</v>
       </c>
       <c r="Z10">
-        <v>0.9319914917228916</v>
+        <v>0.9203198351379638</v>
       </c>
       <c r="AA10">
-        <v>0.9319914917228916</v>
+        <v>0.9203198351379638</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.988419731357466</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.9937622970165815</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.996606793344493</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.996606793344493</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.996606793344493</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -2974,91 +2974,91 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2708439866842711</v>
+        <v>0.2840343507306428</v>
       </c>
       <c r="G11">
-        <v>0.2856452532092923</v>
+        <v>0.2953741097658859</v>
       </c>
       <c r="H11">
-        <v>0.4180640116351262</v>
+        <v>0.431980675489405</v>
       </c>
       <c r="I11">
-        <v>0.4651659927977086</v>
+        <v>0.4777218429461839</v>
       </c>
       <c r="J11">
-        <v>0.4651659927977086</v>
+        <v>0.4777218429461839</v>
       </c>
       <c r="K11">
-        <v>0.4651659927977086</v>
+        <v>0.4777218429461839</v>
       </c>
       <c r="L11">
-        <v>0.4804775802150423</v>
+        <v>0.489605111858514</v>
       </c>
       <c r="M11">
-        <v>0.496469809257832</v>
+        <v>0.5022132882785804</v>
       </c>
       <c r="N11">
-        <v>0.496469809257832</v>
+        <v>0.5022132882785804</v>
       </c>
       <c r="O11">
-        <v>0.5006237698304959</v>
+        <v>0.5022132882785804</v>
       </c>
       <c r="P11">
-        <v>0.7197578287422336</v>
+        <v>0.7311747291769919</v>
       </c>
       <c r="Q11">
-        <v>0.7197578287422336</v>
+        <v>0.7311747291769919</v>
       </c>
       <c r="R11">
-        <v>0.7197578287422336</v>
+        <v>0.7311747291769919</v>
       </c>
       <c r="S11">
-        <v>0.8136673090664747</v>
+        <v>0.8267675458594642</v>
       </c>
       <c r="T11">
-        <v>0.8136673090664747</v>
+        <v>0.8267675458594642</v>
       </c>
       <c r="U11">
-        <v>0.9076169257823996</v>
+        <v>0.9224031092247383</v>
       </c>
       <c r="V11">
-        <v>0.9133784977778018</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="W11">
-        <v>0.9162872294078618</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="X11">
-        <v>0.9162872294078618</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="Y11">
-        <v>0.9162872294078618</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="Z11">
-        <v>0.9162872294078618</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="AA11">
-        <v>0.9162872294078618</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="AB11">
-        <v>0.9162872294078618</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="AC11">
-        <v>0.9162872294078618</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="AD11">
-        <v>0.9836728554958908</v>
+        <v>0.9914592422773159</v>
       </c>
       <c r="AE11">
-        <v>0.9836728554958908</v>
+        <v>0.9914592422773159</v>
       </c>
       <c r="AF11">
-        <v>0.995730022051895</v>
+        <v>0.9998764373741778</v>
       </c>
       <c r="AG11">
-        <v>0.995730022051895</v>
+        <v>0.9998764373741778</v>
       </c>
       <c r="AH11">
-        <v>0.995730022051895</v>
+        <v>0.9998764373741778</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5489325293415006</v>
+        <v>0.5407286067881972</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6676859562831079</v>
+        <v>0.671309751322932</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6865803662135983</v>
+        <v>0.659804673109549</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6562186696220613</v>
+        <v>0.6318723889496671</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5605335811490296</v>
+        <v>0.5389785264636519</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6104375020772534</v>
+        <v>0.5743271623442567</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6638799217964828</v>
+        <v>0.6359257000421891</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.687348490440127</v>
+        <v>0.6492864708567135</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6674416573770949</v>
+        <v>0.6518591339380044</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3504,16 +3504,16 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5006237698304959</v>
+        <v>0.5022132882785804</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>36</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7338930158183834</v>
+        <v>0.722729508084743</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7483303480851318</v>
+        <v>0.7520826370043255</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7731674853867261</v>
+        <v>0.7498306468527048</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7592021929318473</v>
+        <v>0.7338605574872826</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7673445660824331</v>
+        <v>0.7461652654506464</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -3804,16 +3804,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7078962103298373</v>
+        <v>0.7010148524299379</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>36</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7608430586085628</v>
+        <v>0.729677901086213</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7831528139404933</v>
+        <v>0.7482587763183181</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7946376336949412</v>
+        <v>0.7733458049105204</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7197578287422336</v>
+        <v>0.7311747291769919</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -4063,16 +4063,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8063634982129595</v>
+        <v>0.9631741341468324</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>36</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9296158330491963</v>
+        <v>0.9341531219224776</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.965383421742411</v>
+        <v>0.9277145667151725</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9475631225130182</v>
+        <v>0.9039826664512788</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4227,16 +4227,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8040076264259083</v>
+        <v>0.9183870379824008</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>36</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8894705359086794</v>
+        <v>0.848615707161083</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8935330722506536</v>
+        <v>0.8620189707555002</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8871603235217478</v>
+        <v>0.854458629423136</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9214396047554505</v>
+        <v>0.8944770852805786</v>
       </c>
       <c r="G10">
         <v>17</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8136673090664747</v>
+        <v>0.8267675458594642</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9915511886531874</v>
+        <v>0.9631741341468324</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9296158330491963</v>
+        <v>0.9341531219224776</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.965383421742411</v>
+        <v>0.9277145667151725</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9475631225130182</v>
+        <v>0.9039826664512788</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9516641899770647</v>
+        <v>0.9183870379824008</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9491567095187956</v>
+        <v>0.9081728762083708</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9321164003657885</v>
+        <v>0.9031810104370205</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4814,16 +4814,16 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.921782205408308</v>
+        <v>0.9008930292196824</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>36</v>
@@ -4855,16 +4855,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.905518399815237</v>
+      </c>
+      <c r="G10">
         <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9214396047554505</v>
-      </c>
-      <c r="G10">
-        <v>17</v>
       </c>
       <c r="H10">
         <v>36</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9076169257823996</v>
+        <v>0.9224031092247383</v>
       </c>
       <c r="G11">
         <v>17</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/36_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/36_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
-  </si>
-  <si>
-    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -565,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -680,13 +677,10 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -793,13 +787,10 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -906,13 +897,10 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1019,13 +1007,10 @@
       <c r="AJ4">
         <v>0</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1132,13 +1117,10 @@
       <c r="AJ5">
         <v>0.002045972932484763</v>
       </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1245,352 +1227,340 @@
       <c r="AJ6">
         <v>0</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.007885517515768204</v>
+      </c>
+      <c r="E7">
+        <v>0.1969817434806883</v>
+      </c>
+      <c r="F7">
+        <v>0.005061557185577921</v>
+      </c>
+      <c r="G7">
+        <v>0.07987389681234169</v>
+      </c>
+      <c r="H7">
+        <v>0.06112428475376465</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.01352652595082392</v>
+      </c>
+      <c r="M7">
+        <v>0.03358894938814207</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.1796413378744712</v>
+      </c>
+      <c r="P7">
+        <v>0.00456404661578764</v>
+      </c>
+      <c r="Q7">
+        <v>0.007008894038291977</v>
+      </c>
+      <c r="R7">
+        <v>0.09055633499574486</v>
+      </c>
+      <c r="S7">
+        <v>0.02355941643665383</v>
+      </c>
+      <c r="T7">
+        <v>0.1464369456058203</v>
+      </c>
+      <c r="U7">
+        <v>0.05908752994757585</v>
+      </c>
+      <c r="V7">
+        <v>0.004166675396178699</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0.0008013719085443332</v>
+      </c>
+      <c r="Y7">
+        <v>0.001512296508170561</v>
+      </c>
+      <c r="Z7">
+        <v>0.004223728140105296</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.000645678112204977</v>
+      </c>
+      <c r="AC7">
+        <v>0.02704735691771938</v>
+      </c>
+      <c r="AD7">
+        <v>0.02792845705614735</v>
+      </c>
+      <c r="AE7">
+        <v>0.0001718755667514686</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0.01546894841157888</v>
+      </c>
+      <c r="AI7">
+        <v>0.009136631381146678</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.1985473924213368</v>
-      </c>
-      <c r="F7">
-        <v>0.005101787419637196</v>
-      </c>
-      <c r="G7">
-        <v>0.08050874997040595</v>
-      </c>
-      <c r="H7">
-        <v>0.06161011237403859</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.01363403739148512</v>
-      </c>
-      <c r="M7">
-        <v>0.03385592084497761</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0.1810691619223755</v>
-      </c>
-      <c r="P7">
-        <v>0.004600322539753047</v>
-      </c>
-      <c r="Q7">
-        <v>0.007064602081749545</v>
-      </c>
-      <c r="R7">
-        <v>0.09127609423561071</v>
-      </c>
-      <c r="S7">
-        <v>0.02374667122856789</v>
-      </c>
-      <c r="T7">
-        <v>0.1476008547311451</v>
-      </c>
-      <c r="U7">
-        <v>0.05955716904728781</v>
-      </c>
-      <c r="V7">
-        <v>0.004199792936945584</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0.0008077413672439459</v>
-      </c>
-      <c r="Y7">
-        <v>0.001524316532890242</v>
-      </c>
-      <c r="Z7">
-        <v>0.004257299147099615</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0.0006508100865418415</v>
-      </c>
-      <c r="AC7">
-        <v>0.02726233453420962</v>
-      </c>
-      <c r="AD7">
-        <v>0.02815043782670638</v>
-      </c>
-      <c r="AE7">
-        <v>0.000173241666950669</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0.01559189860110195</v>
-      </c>
-      <c r="AI7">
-        <v>0.009209251091939272</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.0007764822301165374</v>
+      </c>
+      <c r="E8">
+        <v>0.2145062601637949</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.09829036376383501</v>
+      </c>
+      <c r="H8">
+        <v>0.05749332177744275</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.005854081719589923</v>
+      </c>
+      <c r="M8">
+        <v>0.01069710042002094</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.2485907871917483</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.09367940412587891</v>
+      </c>
+      <c r="S8">
+        <v>0.01299276621839427</v>
+      </c>
+      <c r="T8">
+        <v>0.11924554296198</v>
+      </c>
+      <c r="U8">
+        <v>0.04113007808915226</v>
+      </c>
+      <c r="V8">
+        <v>0.0007719044303263909</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0.007412303857722215</v>
+      </c>
+      <c r="Z8">
+        <v>0.00638277805548225</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0.05332970774589331</v>
+      </c>
+      <c r="AD8">
+        <v>0.01956232854169282</v>
+      </c>
+      <c r="AE8">
+        <v>0.003120949398832587</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.006163839308096677</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.2146729498946748</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.09836674379242427</v>
-      </c>
-      <c r="H8">
-        <v>0.05753799901123144</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.005858630842331806</v>
-      </c>
-      <c r="M8">
-        <v>0.01070541298296828</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0.2487839635185585</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0.09375220104402392</v>
-      </c>
-      <c r="S8">
-        <v>0.0130028627102294</v>
-      </c>
-      <c r="T8">
-        <v>0.1193382069590577</v>
-      </c>
-      <c r="U8">
-        <v>0.04116203968152032</v>
-      </c>
-      <c r="V8">
-        <v>0.0007725042661617533</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0.00741806385248554</v>
-      </c>
-      <c r="Z8">
-        <v>0.006387738020545844</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0.05337114949507714</v>
-      </c>
-      <c r="AD8">
-        <v>0.01957753014596072</v>
-      </c>
-      <c r="AE8">
-        <v>0.003123374643741449</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0.006168629139007296</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.002368664863161336</v>
+      </c>
+      <c r="F9">
+        <v>0.2010270562983303</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.1145281326019793</v>
+      </c>
+      <c r="I9">
+        <v>0.05849487619578908</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.01232500595559316</v>
+      </c>
+      <c r="M9">
+        <v>0.009947267086634367</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.252085070795771</v>
+      </c>
+      <c r="Q9">
+        <v>0.009963744852011503</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.08887456307687061</v>
+      </c>
+      <c r="T9">
+        <v>0.02105796926740147</v>
+      </c>
+      <c r="U9">
+        <v>0.08499810100619763</v>
+      </c>
+      <c r="V9">
+        <v>0.03773419363539504</v>
+      </c>
+      <c r="W9">
+        <v>0.00385104493924795</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0.004786294190796324</v>
+      </c>
+      <c r="AA9">
+        <v>0.004336671791192849</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0.06221781685241587</v>
+      </c>
+      <c r="AE9">
+        <v>0.02114657827238622</v>
+      </c>
+      <c r="AF9">
+        <v>0.004988260413382097</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0.005268687905443743</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.2012995936385467</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.1146834012171301</v>
-      </c>
-      <c r="I9">
-        <v>0.05857417914270698</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.01234171527026523</v>
-      </c>
-      <c r="M9">
-        <v>0.009960752842055219</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0.2524268287460093</v>
-      </c>
-      <c r="Q9">
-        <v>0.00997725294674544</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.0889950525148591</v>
-      </c>
-      <c r="T9">
-        <v>0.02108651807590603</v>
-      </c>
-      <c r="U9">
-        <v>0.08511333502891195</v>
-      </c>
-      <c r="V9">
-        <v>0.0377853508127321</v>
-      </c>
-      <c r="W9">
-        <v>0.00385626589588992</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0.004792783087924266</v>
-      </c>
-      <c r="AA9">
-        <v>0.004342551124139999</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0.06230216708183904</v>
-      </c>
-      <c r="AE9">
-        <v>0.02117524721030511</v>
-      </c>
-      <c r="AF9">
-        <v>0.004995023121101165</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0.005275830795632859</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0.001016151447299478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1697,13 +1667,10 @@
       <c r="AJ10">
         <v>0</v>
       </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1718,16 +1685,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2840343507306428</v>
+        <v>0.2840343507306429</v>
       </c>
       <c r="G11">
         <v>0.01133975903524311</v>
       </c>
       <c r="H11">
-        <v>0.1366065657235191</v>
+        <v>0.1366065657235192</v>
       </c>
       <c r="I11">
-        <v>0.04574116745677893</v>
+        <v>0.04574116745677894</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1736,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01188326891233009</v>
+        <v>0.0118832689123301</v>
       </c>
       <c r="M11">
-        <v>0.01260817642006632</v>
+        <v>0.01260817642006633</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1757,16 +1724,16 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.09559281668247228</v>
+        <v>0.09559281668247234</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.09563556336527408</v>
+        <v>0.09563556336527411</v>
       </c>
       <c r="V11">
-        <v>0.00171216326812884</v>
+        <v>0.001712163268128841</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1790,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.06734396978444868</v>
+        <v>0.06734396978444872</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.008417195096861847</v>
+        <v>0.008417195096861852</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1808,9 +1775,6 @@
         <v>0.000123562625822308</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
         <v>0</v>
       </c>
     </row>
@@ -1821,15 +1785,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1936,13 +1900,10 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2049,13 +2010,10 @@
       <c r="AJ2">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AK2">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2162,13 +2120,10 @@
       <c r="AJ3">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK3">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2275,13 +2230,10 @@
       <c r="AJ4">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AK4">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2388,13 +2340,10 @@
       <c r="AJ5">
         <v>1</v>
       </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2501,13 +2450,10 @@
       <c r="AJ6">
         <v>1</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2516,97 +2462,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.007885517515768204</v>
       </c>
       <c r="E7">
-        <v>0.1985473924213368</v>
+        <v>0.2048672609964565</v>
       </c>
       <c r="F7">
-        <v>0.203649179840974</v>
+        <v>0.2099288181820344</v>
       </c>
       <c r="G7">
-        <v>0.2841579298113799</v>
+        <v>0.289802714994376</v>
       </c>
       <c r="H7">
-        <v>0.3457680421854185</v>
+        <v>0.3509269997481407</v>
       </c>
       <c r="I7">
-        <v>0.3457680421854185</v>
+        <v>0.3509269997481407</v>
       </c>
       <c r="J7">
-        <v>0.3457680421854185</v>
+        <v>0.3509269997481407</v>
       </c>
       <c r="K7">
-        <v>0.3457680421854185</v>
+        <v>0.3509269997481407</v>
       </c>
       <c r="L7">
-        <v>0.3594020795769036</v>
+        <v>0.3644535256989646</v>
       </c>
       <c r="M7">
-        <v>0.3932580004218812</v>
+        <v>0.3980424750871067</v>
       </c>
       <c r="N7">
-        <v>0.3932580004218812</v>
+        <v>0.3980424750871067</v>
       </c>
       <c r="O7">
-        <v>0.5743271623442567</v>
+        <v>0.5776838129615779</v>
       </c>
       <c r="P7">
-        <v>0.5789274848840098</v>
+        <v>0.5822478595773656</v>
       </c>
       <c r="Q7">
-        <v>0.5859920869657593</v>
+        <v>0.5892567536156575</v>
       </c>
       <c r="R7">
-        <v>0.67726818120137</v>
+        <v>0.6798130886114024</v>
       </c>
       <c r="S7">
-        <v>0.7010148524299379</v>
+        <v>0.7033725050480563</v>
       </c>
       <c r="T7">
-        <v>0.848615707161083</v>
+        <v>0.8498094506538766</v>
       </c>
       <c r="U7">
-        <v>0.9081728762083708</v>
+        <v>0.9088969806014524</v>
       </c>
       <c r="V7">
-        <v>0.9123726691453165</v>
+        <v>0.9130636559976311</v>
       </c>
       <c r="W7">
-        <v>0.9123726691453165</v>
+        <v>0.9130636559976311</v>
       </c>
       <c r="X7">
-        <v>0.9131804105125604</v>
+        <v>0.9138650279061754</v>
       </c>
       <c r="Y7">
-        <v>0.9147047270454506</v>
+        <v>0.9153773244143459</v>
       </c>
       <c r="Z7">
-        <v>0.9189620261925502</v>
+        <v>0.9196010525544512</v>
       </c>
       <c r="AA7">
-        <v>0.9189620261925502</v>
+        <v>0.9196010525544512</v>
       </c>
       <c r="AB7">
-        <v>0.9196128362790921</v>
+        <v>0.9202467306666562</v>
       </c>
       <c r="AC7">
-        <v>0.9468751708133017</v>
+        <v>0.9472940875843756</v>
       </c>
       <c r="AD7">
-        <v>0.9750256086400081</v>
+        <v>0.9752225446405229</v>
       </c>
       <c r="AE7">
-        <v>0.9751988503069587</v>
+        <v>0.9753944202072744</v>
       </c>
       <c r="AF7">
-        <v>0.9751988503069587</v>
+        <v>0.9753944202072744</v>
       </c>
       <c r="AG7">
-        <v>0.9751988503069587</v>
+        <v>0.9753944202072744</v>
       </c>
       <c r="AH7">
-        <v>0.9907907489080607</v>
+        <v>0.9908633686188533</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2614,13 +2560,10 @@
       <c r="AJ7">
         <v>1</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2629,94 +2572,94 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0007764822301165374</v>
       </c>
       <c r="E8">
-        <v>0.2146729498946748</v>
+        <v>0.2152827423939114</v>
       </c>
       <c r="F8">
-        <v>0.2146729498946748</v>
+        <v>0.2152827423939114</v>
       </c>
       <c r="G8">
-        <v>0.3130396936870991</v>
+        <v>0.3135731061577464</v>
       </c>
       <c r="H8">
-        <v>0.3705776926983305</v>
+        <v>0.3710664279351892</v>
       </c>
       <c r="I8">
-        <v>0.3705776926983305</v>
+        <v>0.3710664279351892</v>
       </c>
       <c r="J8">
-        <v>0.3705776926983305</v>
+        <v>0.3710664279351892</v>
       </c>
       <c r="K8">
-        <v>0.3705776926983305</v>
+        <v>0.3710664279351892</v>
       </c>
       <c r="L8">
-        <v>0.3764363235406623</v>
+        <v>0.3769205096547791</v>
       </c>
       <c r="M8">
-        <v>0.3871417365236306</v>
+        <v>0.3876176100748</v>
       </c>
       <c r="N8">
-        <v>0.3871417365236306</v>
+        <v>0.3876176100748</v>
       </c>
       <c r="O8">
-        <v>0.6359257000421891</v>
+        <v>0.6362083972665483</v>
       </c>
       <c r="P8">
-        <v>0.6359257000421891</v>
+        <v>0.6362083972665483</v>
       </c>
       <c r="Q8">
-        <v>0.6359257000421891</v>
+        <v>0.6362083972665483</v>
       </c>
       <c r="R8">
-        <v>0.729677901086213</v>
+        <v>0.7298878013924273</v>
       </c>
       <c r="S8">
-        <v>0.7426807637964424</v>
+        <v>0.7428805676108216</v>
       </c>
       <c r="T8">
-        <v>0.8620189707555002</v>
+        <v>0.8621261105728015</v>
       </c>
       <c r="U8">
-        <v>0.9031810104370205</v>
+        <v>0.9032561886619538</v>
       </c>
       <c r="V8">
-        <v>0.9039535147031822</v>
+        <v>0.9040280930922802</v>
       </c>
       <c r="W8">
-        <v>0.9039535147031822</v>
+        <v>0.9040280930922802</v>
       </c>
       <c r="X8">
-        <v>0.9039535147031822</v>
+        <v>0.9040280930922802</v>
       </c>
       <c r="Y8">
-        <v>0.9113715785556677</v>
+        <v>0.9114403969500023</v>
       </c>
       <c r="Z8">
-        <v>0.9177593165762136</v>
+        <v>0.9178231750054846</v>
       </c>
       <c r="AA8">
-        <v>0.9177593165762136</v>
+        <v>0.9178231750054846</v>
       </c>
       <c r="AB8">
-        <v>0.9177593165762136</v>
+        <v>0.9178231750054846</v>
       </c>
       <c r="AC8">
-        <v>0.9711304660712907</v>
+        <v>0.9711528827513779</v>
       </c>
       <c r="AD8">
-        <v>0.9907079962172515</v>
+        <v>0.9907152112930707</v>
       </c>
       <c r="AE8">
-        <v>0.9938313708609929</v>
+        <v>0.9938361606919033</v>
       </c>
       <c r="AF8">
-        <v>0.9938313708609929</v>
+        <v>0.9938361606919033</v>
       </c>
       <c r="AG8">
-        <v>0.9938313708609929</v>
+        <v>0.9938361606919033</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -2727,126 +2670,120 @@
       <c r="AJ8">
         <v>1</v>
       </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.002368664863161336</v>
+      </c>
+      <c r="F9">
+        <v>0.2033957211614916</v>
+      </c>
+      <c r="G9">
+        <v>0.2033957211614916</v>
+      </c>
+      <c r="H9">
+        <v>0.3179238537634709</v>
+      </c>
+      <c r="I9">
+        <v>0.37641872995926</v>
+      </c>
+      <c r="J9">
+        <v>0.37641872995926</v>
+      </c>
+      <c r="K9">
+        <v>0.37641872995926</v>
+      </c>
+      <c r="L9">
+        <v>0.3887437359148531</v>
+      </c>
+      <c r="M9">
+        <v>0.3986910030014875</v>
+      </c>
+      <c r="N9">
+        <v>0.3986910030014875</v>
+      </c>
+      <c r="O9">
+        <v>0.3986910030014875</v>
+      </c>
+      <c r="P9">
+        <v>0.6507760737972585</v>
+      </c>
+      <c r="Q9">
+        <v>0.66073981864927</v>
+      </c>
+      <c r="R9">
+        <v>0.66073981864927</v>
+      </c>
+      <c r="S9">
+        <v>0.7496143817261406</v>
+      </c>
+      <c r="T9">
+        <v>0.770672350993542</v>
+      </c>
+      <c r="U9">
+        <v>0.8556704519997397</v>
+      </c>
+      <c r="V9">
+        <v>0.8934046456351348</v>
+      </c>
+      <c r="W9">
+        <v>0.8972556905743827</v>
+      </c>
+      <c r="X9">
+        <v>0.8972556905743827</v>
+      </c>
+      <c r="Y9">
+        <v>0.8972556905743827</v>
+      </c>
+      <c r="Z9">
+        <v>0.9020419847651791</v>
+      </c>
+      <c r="AA9">
+        <v>0.906378656556372</v>
+      </c>
+      <c r="AB9">
+        <v>0.906378656556372</v>
+      </c>
+      <c r="AC9">
+        <v>0.906378656556372</v>
+      </c>
+      <c r="AD9">
+        <v>0.9685964734087879</v>
+      </c>
+      <c r="AE9">
+        <v>0.989743051681174</v>
+      </c>
+      <c r="AF9">
+        <v>0.9947313120945561</v>
+      </c>
+      <c r="AG9">
+        <v>0.9947313120945561</v>
+      </c>
+      <c r="AH9">
+        <v>0.9947313120945561</v>
+      </c>
+      <c r="AI9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.2012995936385467</v>
-      </c>
-      <c r="G9">
-        <v>0.2012995936385467</v>
-      </c>
-      <c r="H9">
-        <v>0.3159829948556768</v>
-      </c>
-      <c r="I9">
-        <v>0.3745571739983838</v>
-      </c>
-      <c r="J9">
-        <v>0.3745571739983838</v>
-      </c>
-      <c r="K9">
-        <v>0.3745571739983838</v>
-      </c>
-      <c r="L9">
-        <v>0.386898889268649</v>
-      </c>
-      <c r="M9">
-        <v>0.3968596421107042</v>
-      </c>
-      <c r="N9">
-        <v>0.3968596421107042</v>
-      </c>
-      <c r="O9">
-        <v>0.3968596421107042</v>
-      </c>
-      <c r="P9">
-        <v>0.6492864708567135</v>
-      </c>
-      <c r="Q9">
-        <v>0.659263723803459</v>
-      </c>
-      <c r="R9">
-        <v>0.659263723803459</v>
-      </c>
-      <c r="S9">
-        <v>0.7482587763183181</v>
-      </c>
-      <c r="T9">
-        <v>0.7693452943942241</v>
-      </c>
-      <c r="U9">
-        <v>0.854458629423136</v>
-      </c>
-      <c r="V9">
-        <v>0.8922439802358682</v>
-      </c>
-      <c r="W9">
-        <v>0.8961002461317581</v>
-      </c>
-      <c r="X9">
-        <v>0.8961002461317581</v>
-      </c>
-      <c r="Y9">
-        <v>0.8961002461317581</v>
-      </c>
-      <c r="Z9">
-        <v>0.9008930292196824</v>
-      </c>
-      <c r="AA9">
-        <v>0.9052355803438223</v>
-      </c>
-      <c r="AB9">
-        <v>0.9052355803438223</v>
-      </c>
-      <c r="AC9">
-        <v>0.9052355803438223</v>
-      </c>
-      <c r="AD9">
-        <v>0.9675377474256613</v>
-      </c>
-      <c r="AE9">
-        <v>0.9887129946359665</v>
-      </c>
-      <c r="AF9">
-        <v>0.9937080177570676</v>
-      </c>
-      <c r="AG9">
-        <v>0.9937080177570676</v>
-      </c>
-      <c r="AH9">
-        <v>0.9937080177570676</v>
-      </c>
-      <c r="AI9">
-        <v>0.9989838485527005</v>
-      </c>
-      <c r="AJ9">
-        <v>0.9989838485527005</v>
-      </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2953,13 +2890,10 @@
       <c r="AJ10">
         <v>1</v>
       </c>
-      <c r="AK10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2974,99 +2908,96 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2840343507306428</v>
+        <v>0.2840343507306429</v>
       </c>
       <c r="G11">
-        <v>0.2953741097658859</v>
+        <v>0.295374109765886</v>
       </c>
       <c r="H11">
-        <v>0.431980675489405</v>
+        <v>0.4319806754894052</v>
       </c>
       <c r="I11">
-        <v>0.4777218429461839</v>
+        <v>0.4777218429461841</v>
       </c>
       <c r="J11">
-        <v>0.4777218429461839</v>
+        <v>0.4777218429461841</v>
       </c>
       <c r="K11">
-        <v>0.4777218429461839</v>
+        <v>0.4777218429461841</v>
       </c>
       <c r="L11">
-        <v>0.489605111858514</v>
+        <v>0.4896051118585142</v>
       </c>
       <c r="M11">
-        <v>0.5022132882785804</v>
+        <v>0.5022132882785806</v>
       </c>
       <c r="N11">
-        <v>0.5022132882785804</v>
+        <v>0.5022132882785806</v>
       </c>
       <c r="O11">
-        <v>0.5022132882785804</v>
+        <v>0.5022132882785806</v>
       </c>
       <c r="P11">
-        <v>0.7311747291769919</v>
+        <v>0.7311747291769921</v>
       </c>
       <c r="Q11">
-        <v>0.7311747291769919</v>
+        <v>0.7311747291769921</v>
       </c>
       <c r="R11">
-        <v>0.7311747291769919</v>
+        <v>0.7311747291769921</v>
       </c>
       <c r="S11">
-        <v>0.8267675458594642</v>
+        <v>0.8267675458594644</v>
       </c>
       <c r="T11">
-        <v>0.8267675458594642</v>
+        <v>0.8267675458594644</v>
       </c>
       <c r="U11">
-        <v>0.9224031092247383</v>
+        <v>0.9224031092247386</v>
       </c>
       <c r="V11">
-        <v>0.9241152724928672</v>
+        <v>0.9241152724928674</v>
       </c>
       <c r="W11">
-        <v>0.9241152724928672</v>
+        <v>0.9241152724928674</v>
       </c>
       <c r="X11">
-        <v>0.9241152724928672</v>
+        <v>0.9241152724928674</v>
       </c>
       <c r="Y11">
-        <v>0.9241152724928672</v>
+        <v>0.9241152724928674</v>
       </c>
       <c r="Z11">
-        <v>0.9241152724928672</v>
+        <v>0.9241152724928674</v>
       </c>
       <c r="AA11">
-        <v>0.9241152724928672</v>
+        <v>0.9241152724928674</v>
       </c>
       <c r="AB11">
-        <v>0.9241152724928672</v>
+        <v>0.9241152724928674</v>
       </c>
       <c r="AC11">
-        <v>0.9241152724928672</v>
+        <v>0.9241152724928674</v>
       </c>
       <c r="AD11">
-        <v>0.9914592422773159</v>
+        <v>0.9914592422773161</v>
       </c>
       <c r="AE11">
-        <v>0.9914592422773159</v>
+        <v>0.9914592422773161</v>
       </c>
       <c r="AF11">
-        <v>0.9998764373741778</v>
+        <v>0.999876437374178</v>
       </c>
       <c r="AG11">
-        <v>0.9998764373741778</v>
+        <v>0.999876437374178</v>
       </c>
       <c r="AH11">
-        <v>0.9998764373741778</v>
+        <v>0.999876437374178</v>
       </c>
       <c r="AI11">
         <v>1</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
-      </c>
-      <c r="AK11">
         <v>1</v>
       </c>
     </row>
@@ -3085,48 +3016,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -3153,21 +3084,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -3194,21 +3125,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -3235,21 +3166,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -3276,21 +3207,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -3317,21 +3248,21 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -3346,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5743271623442567</v>
+        <v>0.5776838129615779</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3358,21 +3289,21 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -3387,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6359257000421891</v>
+        <v>0.6362083972665483</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3399,21 +3330,21 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -3428,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6492864708567135</v>
+        <v>0.6507760737972585</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3440,21 +3371,21 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -3481,21 +3412,21 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -3510,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5022132882785804</v>
+        <v>0.5022132882785806</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -3522,16 +3453,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3549,48 +3480,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3617,21 +3548,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -3658,21 +3589,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -3699,21 +3630,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -3740,21 +3671,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -3781,21 +3712,21 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -3810,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7010148524299379</v>
+        <v>0.7033725050480563</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -3822,21 +3753,21 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3851,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.729677901086213</v>
+        <v>0.7298878013924273</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -3863,21 +3794,21 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3892,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7482587763183181</v>
+        <v>0.7496143817261406</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -3904,21 +3835,21 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -3945,21 +3876,21 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -3974,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7311747291769919</v>
+        <v>0.7311747291769921</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3986,16 +3917,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4013,48 +3944,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -4081,21 +4012,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -4122,21 +4053,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -4163,21 +4094,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -4204,21 +4135,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4245,21 +4176,21 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4274,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.848615707161083</v>
+        <v>0.8498094506538766</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -4286,21 +4217,21 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -4315,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8620189707555002</v>
+        <v>0.8621261105728015</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4327,21 +4258,21 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -4356,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.854458629423136</v>
+        <v>0.8556704519997397</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -4368,21 +4299,21 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -4409,21 +4340,21 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -4438,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8267675458594642</v>
+        <v>0.8267675458594644</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -4450,16 +4381,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4477,48 +4408,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4545,21 +4476,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -4586,21 +4517,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -4627,21 +4558,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -4668,21 +4599,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -4709,21 +4640,21 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -4738,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9081728762083708</v>
+        <v>0.9088969806014524</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4750,21 +4681,21 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -4779,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9031810104370205</v>
+        <v>0.9032561886619538</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4791,21 +4722,21 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -4820,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9008930292196824</v>
+        <v>0.9020419847651791</v>
       </c>
       <c r="G9">
         <v>22</v>
@@ -4832,21 +4763,21 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -4873,21 +4804,21 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -4902,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9224031092247383</v>
+        <v>0.9224031092247386</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4914,16 +4845,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/36_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/36_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="63">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
+  </si>
+  <si>
+    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -562,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -677,10 +680,13 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -689,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00675773967174312</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06814909375273842</v>
+        <v>0.0686127609292579</v>
       </c>
       <c r="F2">
-        <v>0.04544562900116306</v>
+        <v>0.04575482821899235</v>
       </c>
       <c r="G2">
-        <v>0.04625250516975796</v>
+        <v>0.04656719414503362</v>
       </c>
       <c r="H2">
-        <v>0.02407298430130625</v>
+        <v>0.02423677008401794</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -710,43 +716,43 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.04901211840271389</v>
+        <v>0.04934558300662305</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1036320709980235</v>
+        <v>0.1043371543250426</v>
       </c>
       <c r="N2">
-        <v>0.1312298651349139</v>
+        <v>0.1321227160547354</v>
       </c>
       <c r="O2">
-        <v>0.06617660035583717</v>
+        <v>0.06662684724466561</v>
       </c>
       <c r="P2">
-        <v>0.03809754521796602</v>
+        <v>0.03835675015013473</v>
       </c>
       <c r="Q2">
-        <v>0.01973979931495674</v>
+        <v>0.01987410333148021</v>
       </c>
       <c r="R2">
-        <v>0.124163556763623</v>
+        <v>0.1250083305180633</v>
       </c>
       <c r="S2">
-        <v>0.07025689981157519</v>
+        <v>0.07073490790490125</v>
       </c>
       <c r="T2">
-        <v>0.1701877262505141</v>
+        <v>0.1713456354487663</v>
       </c>
       <c r="U2">
-        <v>0.005419270512626489</v>
+        <v>0.005456141697832585</v>
       </c>
       <c r="V2">
-        <v>0.001744685337862029</v>
+        <v>0.001756555683892697</v>
       </c>
       <c r="W2">
-        <v>0.00165654882943001</v>
+        <v>0.001667819519562667</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -764,22 +770,22 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0111339494890517</v>
+        <v>0.01120970173517591</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0001018502538536615</v>
+        <v>0.0001025432142003312</v>
       </c>
       <c r="AF2">
-        <v>0.002391205088463252</v>
+        <v>0.002407474172185326</v>
       </c>
       <c r="AG2">
-        <v>0.008118777452729542</v>
+        <v>0.008174015320337222</v>
       </c>
       <c r="AH2">
-        <v>0.006259578889150802</v>
+        <v>0.006302167295098855</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -787,10 +793,13 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -897,10 +906,13 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1007,10 +1019,13 @@
       <c r="AJ4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1117,10 +1132,13 @@
       <c r="AJ5">
         <v>0.002045972932484763</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1227,10 +1245,13 @@
       <c r="AJ6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1239,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007885517515768204</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1969817434806883</v>
+        <v>0.1985473924213368</v>
       </c>
       <c r="F7">
-        <v>0.005061557185577921</v>
+        <v>0.005101787419637196</v>
       </c>
       <c r="G7">
-        <v>0.07987389681234169</v>
+        <v>0.08050874997040595</v>
       </c>
       <c r="H7">
-        <v>0.06112428475376465</v>
+        <v>0.06161011237403859</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1263,64 +1284,64 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01352652595082392</v>
+        <v>0.01363403739148512</v>
       </c>
       <c r="M7">
-        <v>0.03358894938814207</v>
+        <v>0.03385592084497761</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1796413378744712</v>
+        <v>0.1810691619223755</v>
       </c>
       <c r="P7">
-        <v>0.00456404661578764</v>
+        <v>0.004600322539753047</v>
       </c>
       <c r="Q7">
-        <v>0.007008894038291977</v>
+        <v>0.007064602081749545</v>
       </c>
       <c r="R7">
-        <v>0.09055633499574486</v>
+        <v>0.09127609423561071</v>
       </c>
       <c r="S7">
-        <v>0.02355941643665383</v>
+        <v>0.02374667122856789</v>
       </c>
       <c r="T7">
-        <v>0.1464369456058203</v>
+        <v>0.1476008547311451</v>
       </c>
       <c r="U7">
-        <v>0.05908752994757585</v>
+        <v>0.05955716904728781</v>
       </c>
       <c r="V7">
-        <v>0.004166675396178699</v>
+        <v>0.004199792936945584</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0008013719085443332</v>
+        <v>0.0008077413672439459</v>
       </c>
       <c r="Y7">
-        <v>0.001512296508170561</v>
+        <v>0.001524316532890242</v>
       </c>
       <c r="Z7">
-        <v>0.004223728140105296</v>
+        <v>0.004257299147099615</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.000645678112204977</v>
+        <v>0.0006508100865418415</v>
       </c>
       <c r="AC7">
-        <v>0.02704735691771938</v>
+        <v>0.02726233453420962</v>
       </c>
       <c r="AD7">
-        <v>0.02792845705614735</v>
+        <v>0.02815043782670638</v>
       </c>
       <c r="AE7">
-        <v>0.0001718755667514686</v>
+        <v>0.000173241666950669</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1329,18 +1350,21 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.01546894841157888</v>
+        <v>0.01559189860110195</v>
       </c>
       <c r="AI7">
-        <v>0.009136631381146678</v>
+        <v>0.009209251091939272</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1349,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0007764822301165374</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2145062601637949</v>
+        <v>0.2146729498946748</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.09829036376383501</v>
+        <v>0.09836674379242427</v>
       </c>
       <c r="H8">
-        <v>0.05749332177744275</v>
+        <v>0.05753799901123144</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1373,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.005854081719589923</v>
+        <v>0.005858630842331806</v>
       </c>
       <c r="M8">
-        <v>0.01069710042002094</v>
+        <v>0.01070541298296828</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2485907871917483</v>
+        <v>0.2487839635185585</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1391,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.09367940412587891</v>
+        <v>0.09375220104402392</v>
       </c>
       <c r="S8">
-        <v>0.01299276621839427</v>
+        <v>0.0130028627102294</v>
       </c>
       <c r="T8">
-        <v>0.11924554296198</v>
+        <v>0.1193382069590577</v>
       </c>
       <c r="U8">
-        <v>0.04113007808915226</v>
+        <v>0.04116203968152032</v>
       </c>
       <c r="V8">
-        <v>0.0007719044303263909</v>
+        <v>0.0007725042661617533</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1412,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.007412303857722215</v>
+        <v>0.00741806385248554</v>
       </c>
       <c r="Z8">
-        <v>0.00638277805548225</v>
+        <v>0.006387738020545844</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1424,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.05332970774589331</v>
+        <v>0.05337114949507714</v>
       </c>
       <c r="AD8">
-        <v>0.01956232854169282</v>
+        <v>0.01957753014596072</v>
       </c>
       <c r="AE8">
-        <v>0.003120949398832587</v>
+        <v>0.003123374643741449</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1439,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.006163839308096677</v>
+        <v>0.006168629139007296</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1447,10 +1471,13 @@
       <c r="AJ8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1462,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.002368664863161336</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2010270562983303</v>
+        <v>0.2012995936385467</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1145281326019793</v>
+        <v>0.1146834012171301</v>
       </c>
       <c r="I9">
-        <v>0.05849487619578908</v>
+        <v>0.05857417914270698</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1483,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01232500595559316</v>
+        <v>0.01234171527026523</v>
       </c>
       <c r="M9">
-        <v>0.009947267086634367</v>
+        <v>0.009960752842055219</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1495,28 +1522,28 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.252085070795771</v>
+        <v>0.2524268287460093</v>
       </c>
       <c r="Q9">
-        <v>0.009963744852011503</v>
+        <v>0.00997725294674544</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.08887456307687061</v>
+        <v>0.0889950525148591</v>
       </c>
       <c r="T9">
-        <v>0.02105796926740147</v>
+        <v>0.02108651807590603</v>
       </c>
       <c r="U9">
-        <v>0.08499810100619763</v>
+        <v>0.08511333502891195</v>
       </c>
       <c r="V9">
-        <v>0.03773419363539504</v>
+        <v>0.0377853508127321</v>
       </c>
       <c r="W9">
-        <v>0.00385104493924795</v>
+        <v>0.00385626589588992</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1525,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.004786294190796324</v>
+        <v>0.004792783087924266</v>
       </c>
       <c r="AA9">
-        <v>0.004336671791192849</v>
+        <v>0.004342551124139999</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1537,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.06221781685241587</v>
+        <v>0.06230216708183904</v>
       </c>
       <c r="AE9">
-        <v>0.02114657827238622</v>
+        <v>0.02117524721030511</v>
       </c>
       <c r="AF9">
-        <v>0.004988260413382097</v>
+        <v>0.004995023121101165</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1552,15 +1579,18 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.005268687905443743</v>
+        <v>0.005275830795632859</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9">
+        <v>0.001016151447299478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1667,10 +1697,13 @@
       <c r="AJ10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1685,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2840343507306429</v>
+        <v>0.2840343507306428</v>
       </c>
       <c r="G11">
         <v>0.01133975903524311</v>
       </c>
       <c r="H11">
-        <v>0.1366065657235192</v>
+        <v>0.1366065657235191</v>
       </c>
       <c r="I11">
-        <v>0.04574116745677894</v>
+        <v>0.04574116745677893</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1703,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0118832689123301</v>
+        <v>0.01188326891233009</v>
       </c>
       <c r="M11">
-        <v>0.01260817642006633</v>
+        <v>0.01260817642006632</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1724,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.09559281668247234</v>
+        <v>0.09559281668247228</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.09563556336527411</v>
+        <v>0.09563556336527408</v>
       </c>
       <c r="V11">
-        <v>0.001712163268128841</v>
+        <v>0.00171216326812884</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1757,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.06734396978444872</v>
+        <v>0.06734396978444868</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.008417195096861852</v>
+        <v>0.008417195096861847</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1775,6 +1808,9 @@
         <v>0.000123562625822308</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <v>0</v>
       </c>
     </row>
@@ -1785,15 +1821,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1900,10 +1936,13 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1912,94 +1951,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00675773967174312</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07490683342448154</v>
+        <v>0.0686127609292579</v>
       </c>
       <c r="F2">
-        <v>0.1203524624256446</v>
+        <v>0.1143675891482503</v>
       </c>
       <c r="G2">
-        <v>0.1666049675954026</v>
+        <v>0.1609347832932839</v>
       </c>
       <c r="H2">
-        <v>0.1906779518967088</v>
+        <v>0.1851715533773018</v>
       </c>
       <c r="I2">
-        <v>0.1906779518967088</v>
+        <v>0.1851715533773018</v>
       </c>
       <c r="J2">
-        <v>0.1906779518967088</v>
+        <v>0.1851715533773018</v>
       </c>
       <c r="K2">
-        <v>0.2396900702994227</v>
+        <v>0.2345171363839249</v>
       </c>
       <c r="L2">
-        <v>0.2396900702994227</v>
+        <v>0.2345171363839249</v>
       </c>
       <c r="M2">
-        <v>0.3433221412974462</v>
+        <v>0.3388542907089675</v>
       </c>
       <c r="N2">
-        <v>0.4745520064323601</v>
+        <v>0.4709770067637029</v>
       </c>
       <c r="O2">
-        <v>0.5407286067881972</v>
+        <v>0.5376038540083685</v>
       </c>
       <c r="P2">
-        <v>0.5788261520061633</v>
+        <v>0.5759606041585033</v>
       </c>
       <c r="Q2">
-        <v>0.59856595132112</v>
+        <v>0.5958347074899835</v>
       </c>
       <c r="R2">
-        <v>0.722729508084743</v>
+        <v>0.7208430380080467</v>
       </c>
       <c r="S2">
-        <v>0.7929864078963182</v>
+        <v>0.7915779459129479</v>
       </c>
       <c r="T2">
-        <v>0.9631741341468324</v>
+        <v>0.9629235813617143</v>
       </c>
       <c r="U2">
-        <v>0.9685934046594589</v>
+        <v>0.9683797230595469</v>
       </c>
       <c r="V2">
-        <v>0.9703380899973209</v>
+        <v>0.9701362787434396</v>
       </c>
       <c r="W2">
-        <v>0.9719946388267509</v>
+        <v>0.9718040982630022</v>
       </c>
       <c r="X2">
-        <v>0.9719946388267509</v>
+        <v>0.9718040982630022</v>
       </c>
       <c r="Y2">
-        <v>0.9719946388267509</v>
+        <v>0.9718040982630022</v>
       </c>
       <c r="Z2">
-        <v>0.9719946388267509</v>
+        <v>0.9718040982630022</v>
       </c>
       <c r="AA2">
-        <v>0.9719946388267509</v>
+        <v>0.9718040982630022</v>
       </c>
       <c r="AB2">
-        <v>0.9719946388267509</v>
+        <v>0.9718040982630022</v>
       </c>
       <c r="AC2">
-        <v>0.9831285883158025</v>
+        <v>0.9830137999981781</v>
       </c>
       <c r="AD2">
-        <v>0.9831285883158025</v>
+        <v>0.9830137999981781</v>
       </c>
       <c r="AE2">
-        <v>0.9832304385696562</v>
+        <v>0.9831163432123784</v>
       </c>
       <c r="AF2">
-        <v>0.9856216436581194</v>
+        <v>0.9855238173845637</v>
       </c>
       <c r="AG2">
-        <v>0.9937404211108489</v>
+        <v>0.993697832704901</v>
       </c>
       <c r="AH2">
         <v>0.9999999999999998</v>
@@ -2010,10 +2049,13 @@
       <c r="AJ2">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2120,10 +2162,13 @@
       <c r="AJ3">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2230,10 +2275,13 @@
       <c r="AJ4">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2340,10 +2388,13 @@
       <c r="AJ5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2450,10 +2501,13 @@
       <c r="AJ6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2462,97 +2516,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007885517515768204</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2048672609964565</v>
+        <v>0.1985473924213368</v>
       </c>
       <c r="F7">
-        <v>0.2099288181820344</v>
+        <v>0.203649179840974</v>
       </c>
       <c r="G7">
-        <v>0.289802714994376</v>
+        <v>0.2841579298113799</v>
       </c>
       <c r="H7">
-        <v>0.3509269997481407</v>
+        <v>0.3457680421854185</v>
       </c>
       <c r="I7">
-        <v>0.3509269997481407</v>
+        <v>0.3457680421854185</v>
       </c>
       <c r="J7">
-        <v>0.3509269997481407</v>
+        <v>0.3457680421854185</v>
       </c>
       <c r="K7">
-        <v>0.3509269997481407</v>
+        <v>0.3457680421854185</v>
       </c>
       <c r="L7">
-        <v>0.3644535256989646</v>
+        <v>0.3594020795769036</v>
       </c>
       <c r="M7">
-        <v>0.3980424750871067</v>
+        <v>0.3932580004218812</v>
       </c>
       <c r="N7">
-        <v>0.3980424750871067</v>
+        <v>0.3932580004218812</v>
       </c>
       <c r="O7">
-        <v>0.5776838129615779</v>
+        <v>0.5743271623442567</v>
       </c>
       <c r="P7">
-        <v>0.5822478595773656</v>
+        <v>0.5789274848840098</v>
       </c>
       <c r="Q7">
-        <v>0.5892567536156575</v>
+        <v>0.5859920869657593</v>
       </c>
       <c r="R7">
-        <v>0.6798130886114024</v>
+        <v>0.67726818120137</v>
       </c>
       <c r="S7">
-        <v>0.7033725050480563</v>
+        <v>0.7010148524299379</v>
       </c>
       <c r="T7">
-        <v>0.8498094506538766</v>
+        <v>0.848615707161083</v>
       </c>
       <c r="U7">
-        <v>0.9088969806014524</v>
+        <v>0.9081728762083708</v>
       </c>
       <c r="V7">
-        <v>0.9130636559976311</v>
+        <v>0.9123726691453165</v>
       </c>
       <c r="W7">
-        <v>0.9130636559976311</v>
+        <v>0.9123726691453165</v>
       </c>
       <c r="X7">
-        <v>0.9138650279061754</v>
+        <v>0.9131804105125604</v>
       </c>
       <c r="Y7">
-        <v>0.9153773244143459</v>
+        <v>0.9147047270454506</v>
       </c>
       <c r="Z7">
-        <v>0.9196010525544512</v>
+        <v>0.9189620261925502</v>
       </c>
       <c r="AA7">
-        <v>0.9196010525544512</v>
+        <v>0.9189620261925502</v>
       </c>
       <c r="AB7">
-        <v>0.9202467306666562</v>
+        <v>0.9196128362790921</v>
       </c>
       <c r="AC7">
-        <v>0.9472940875843756</v>
+        <v>0.9468751708133017</v>
       </c>
       <c r="AD7">
-        <v>0.9752225446405229</v>
+        <v>0.9750256086400081</v>
       </c>
       <c r="AE7">
-        <v>0.9753944202072744</v>
+        <v>0.9751988503069587</v>
       </c>
       <c r="AF7">
-        <v>0.9753944202072744</v>
+        <v>0.9751988503069587</v>
       </c>
       <c r="AG7">
-        <v>0.9753944202072744</v>
+        <v>0.9751988503069587</v>
       </c>
       <c r="AH7">
-        <v>0.9908633686188533</v>
+        <v>0.9907907489080607</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2560,10 +2614,13 @@
       <c r="AJ7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2572,94 +2629,94 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0007764822301165374</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2152827423939114</v>
+        <v>0.2146729498946748</v>
       </c>
       <c r="F8">
-        <v>0.2152827423939114</v>
+        <v>0.2146729498946748</v>
       </c>
       <c r="G8">
-        <v>0.3135731061577464</v>
+        <v>0.3130396936870991</v>
       </c>
       <c r="H8">
-        <v>0.3710664279351892</v>
+        <v>0.3705776926983305</v>
       </c>
       <c r="I8">
-        <v>0.3710664279351892</v>
+        <v>0.3705776926983305</v>
       </c>
       <c r="J8">
-        <v>0.3710664279351892</v>
+        <v>0.3705776926983305</v>
       </c>
       <c r="K8">
-        <v>0.3710664279351892</v>
+        <v>0.3705776926983305</v>
       </c>
       <c r="L8">
-        <v>0.3769205096547791</v>
+        <v>0.3764363235406623</v>
       </c>
       <c r="M8">
-        <v>0.3876176100748</v>
+        <v>0.3871417365236306</v>
       </c>
       <c r="N8">
-        <v>0.3876176100748</v>
+        <v>0.3871417365236306</v>
       </c>
       <c r="O8">
-        <v>0.6362083972665483</v>
+        <v>0.6359257000421891</v>
       </c>
       <c r="P8">
-        <v>0.6362083972665483</v>
+        <v>0.6359257000421891</v>
       </c>
       <c r="Q8">
-        <v>0.6362083972665483</v>
+        <v>0.6359257000421891</v>
       </c>
       <c r="R8">
-        <v>0.7298878013924273</v>
+        <v>0.729677901086213</v>
       </c>
       <c r="S8">
-        <v>0.7428805676108216</v>
+        <v>0.7426807637964424</v>
       </c>
       <c r="T8">
-        <v>0.8621261105728015</v>
+        <v>0.8620189707555002</v>
       </c>
       <c r="U8">
-        <v>0.9032561886619538</v>
+        <v>0.9031810104370205</v>
       </c>
       <c r="V8">
-        <v>0.9040280930922802</v>
+        <v>0.9039535147031822</v>
       </c>
       <c r="W8">
-        <v>0.9040280930922802</v>
+        <v>0.9039535147031822</v>
       </c>
       <c r="X8">
-        <v>0.9040280930922802</v>
+        <v>0.9039535147031822</v>
       </c>
       <c r="Y8">
-        <v>0.9114403969500023</v>
+        <v>0.9113715785556677</v>
       </c>
       <c r="Z8">
-        <v>0.9178231750054846</v>
+        <v>0.9177593165762136</v>
       </c>
       <c r="AA8">
-        <v>0.9178231750054846</v>
+        <v>0.9177593165762136</v>
       </c>
       <c r="AB8">
-        <v>0.9178231750054846</v>
+        <v>0.9177593165762136</v>
       </c>
       <c r="AC8">
-        <v>0.9711528827513779</v>
+        <v>0.9711304660712907</v>
       </c>
       <c r="AD8">
-        <v>0.9907152112930707</v>
+        <v>0.9907079962172515</v>
       </c>
       <c r="AE8">
-        <v>0.9938361606919033</v>
+        <v>0.9938313708609929</v>
       </c>
       <c r="AF8">
-        <v>0.9938361606919033</v>
+        <v>0.9938313708609929</v>
       </c>
       <c r="AG8">
-        <v>0.9938361606919033</v>
+        <v>0.9938313708609929</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -2670,10 +2727,13 @@
       <c r="AJ8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2685,105 +2745,108 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.002368664863161336</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2033957211614916</v>
+        <v>0.2012995936385467</v>
       </c>
       <c r="G9">
-        <v>0.2033957211614916</v>
+        <v>0.2012995936385467</v>
       </c>
       <c r="H9">
-        <v>0.3179238537634709</v>
+        <v>0.3159829948556768</v>
       </c>
       <c r="I9">
-        <v>0.37641872995926</v>
+        <v>0.3745571739983838</v>
       </c>
       <c r="J9">
-        <v>0.37641872995926</v>
+        <v>0.3745571739983838</v>
       </c>
       <c r="K9">
-        <v>0.37641872995926</v>
+        <v>0.3745571739983838</v>
       </c>
       <c r="L9">
-        <v>0.3887437359148531</v>
+        <v>0.386898889268649</v>
       </c>
       <c r="M9">
-        <v>0.3986910030014875</v>
+        <v>0.3968596421107042</v>
       </c>
       <c r="N9">
-        <v>0.3986910030014875</v>
+        <v>0.3968596421107042</v>
       </c>
       <c r="O9">
-        <v>0.3986910030014875</v>
+        <v>0.3968596421107042</v>
       </c>
       <c r="P9">
-        <v>0.6507760737972585</v>
+        <v>0.6492864708567135</v>
       </c>
       <c r="Q9">
-        <v>0.66073981864927</v>
+        <v>0.659263723803459</v>
       </c>
       <c r="R9">
-        <v>0.66073981864927</v>
+        <v>0.659263723803459</v>
       </c>
       <c r="S9">
-        <v>0.7496143817261406</v>
+        <v>0.7482587763183181</v>
       </c>
       <c r="T9">
-        <v>0.770672350993542</v>
+        <v>0.7693452943942241</v>
       </c>
       <c r="U9">
-        <v>0.8556704519997397</v>
+        <v>0.854458629423136</v>
       </c>
       <c r="V9">
-        <v>0.8934046456351348</v>
+        <v>0.8922439802358682</v>
       </c>
       <c r="W9">
-        <v>0.8972556905743827</v>
+        <v>0.8961002461317581</v>
       </c>
       <c r="X9">
-        <v>0.8972556905743827</v>
+        <v>0.8961002461317581</v>
       </c>
       <c r="Y9">
-        <v>0.8972556905743827</v>
+        <v>0.8961002461317581</v>
       </c>
       <c r="Z9">
-        <v>0.9020419847651791</v>
+        <v>0.9008930292196824</v>
       </c>
       <c r="AA9">
-        <v>0.906378656556372</v>
+        <v>0.9052355803438223</v>
       </c>
       <c r="AB9">
-        <v>0.906378656556372</v>
+        <v>0.9052355803438223</v>
       </c>
       <c r="AC9">
-        <v>0.906378656556372</v>
+        <v>0.9052355803438223</v>
       </c>
       <c r="AD9">
-        <v>0.9685964734087879</v>
+        <v>0.9675377474256613</v>
       </c>
       <c r="AE9">
-        <v>0.989743051681174</v>
+        <v>0.9887129946359665</v>
       </c>
       <c r="AF9">
-        <v>0.9947313120945561</v>
+        <v>0.9937080177570676</v>
       </c>
       <c r="AG9">
-        <v>0.9947313120945561</v>
+        <v>0.9937080177570676</v>
       </c>
       <c r="AH9">
-        <v>0.9947313120945561</v>
+        <v>0.9937080177570676</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999999</v>
+        <v>0.9989838485527005</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+        <v>0.9989838485527005</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2890,10 +2953,13 @@
       <c r="AJ10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2908,96 +2974,99 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2840343507306429</v>
+        <v>0.2840343507306428</v>
       </c>
       <c r="G11">
-        <v>0.295374109765886</v>
+        <v>0.2953741097658859</v>
       </c>
       <c r="H11">
-        <v>0.4319806754894052</v>
+        <v>0.431980675489405</v>
       </c>
       <c r="I11">
-        <v>0.4777218429461841</v>
+        <v>0.4777218429461839</v>
       </c>
       <c r="J11">
-        <v>0.4777218429461841</v>
+        <v>0.4777218429461839</v>
       </c>
       <c r="K11">
-        <v>0.4777218429461841</v>
+        <v>0.4777218429461839</v>
       </c>
       <c r="L11">
-        <v>0.4896051118585142</v>
+        <v>0.489605111858514</v>
       </c>
       <c r="M11">
-        <v>0.5022132882785806</v>
+        <v>0.5022132882785804</v>
       </c>
       <c r="N11">
-        <v>0.5022132882785806</v>
+        <v>0.5022132882785804</v>
       </c>
       <c r="O11">
-        <v>0.5022132882785806</v>
+        <v>0.5022132882785804</v>
       </c>
       <c r="P11">
-        <v>0.7311747291769921</v>
+        <v>0.7311747291769919</v>
       </c>
       <c r="Q11">
-        <v>0.7311747291769921</v>
+        <v>0.7311747291769919</v>
       </c>
       <c r="R11">
-        <v>0.7311747291769921</v>
+        <v>0.7311747291769919</v>
       </c>
       <c r="S11">
-        <v>0.8267675458594644</v>
+        <v>0.8267675458594642</v>
       </c>
       <c r="T11">
-        <v>0.8267675458594644</v>
+        <v>0.8267675458594642</v>
       </c>
       <c r="U11">
-        <v>0.9224031092247386</v>
+        <v>0.9224031092247383</v>
       </c>
       <c r="V11">
-        <v>0.9241152724928674</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="W11">
-        <v>0.9241152724928674</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="X11">
-        <v>0.9241152724928674</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="Y11">
-        <v>0.9241152724928674</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="Z11">
-        <v>0.9241152724928674</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="AA11">
-        <v>0.9241152724928674</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="AB11">
-        <v>0.9241152724928674</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="AC11">
-        <v>0.9241152724928674</v>
+        <v>0.9241152724928672</v>
       </c>
       <c r="AD11">
-        <v>0.9914592422773161</v>
+        <v>0.9914592422773159</v>
       </c>
       <c r="AE11">
-        <v>0.9914592422773161</v>
+        <v>0.9914592422773159</v>
       </c>
       <c r="AF11">
-        <v>0.999876437374178</v>
+        <v>0.9998764373741778</v>
       </c>
       <c r="AG11">
-        <v>0.999876437374178</v>
+        <v>0.9998764373741778</v>
       </c>
       <c r="AH11">
-        <v>0.999876437374178</v>
+        <v>0.9998764373741778</v>
       </c>
       <c r="AI11">
         <v>1</v>
       </c>
       <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
         <v>1</v>
       </c>
     </row>
@@ -3016,48 +3085,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -3072,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5407286067881972</v>
+        <v>0.5376038540083685</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3084,21 +3153,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -3125,21 +3194,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -3166,21 +3235,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -3207,21 +3276,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -3248,21 +3317,21 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -3277,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5776838129615779</v>
+        <v>0.5743271623442567</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3289,21 +3358,21 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -3318,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6362083972665483</v>
+        <v>0.6359257000421891</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3330,21 +3399,21 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -3359,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6507760737972585</v>
+        <v>0.6492864708567135</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3371,21 +3440,21 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -3412,21 +3481,21 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -3441,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5022132882785806</v>
+        <v>0.5022132882785804</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -3453,16 +3522,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3480,48 +3549,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3536,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.722729508084743</v>
+        <v>0.7208430380080467</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -3548,21 +3617,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -3589,21 +3658,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -3630,21 +3699,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -3671,21 +3740,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -3712,21 +3781,21 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -3741,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7033725050480563</v>
+        <v>0.7010148524299379</v>
       </c>
       <c r="G7">
         <v>16</v>
@@ -3753,21 +3822,21 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3782,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7298878013924273</v>
+        <v>0.729677901086213</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -3794,21 +3863,21 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3823,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7496143817261406</v>
+        <v>0.7482587763183181</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -3835,21 +3904,21 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -3876,21 +3945,21 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -3905,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7311747291769921</v>
+        <v>0.7311747291769919</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3917,16 +3986,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3944,48 +4013,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -4000,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9631741341468324</v>
+        <v>0.9629235813617143</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4012,21 +4081,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -4053,21 +4122,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -4094,21 +4163,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -4135,21 +4204,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4176,21 +4245,21 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4205,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8498094506538766</v>
+        <v>0.848615707161083</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -4217,21 +4286,21 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -4246,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8621261105728015</v>
+        <v>0.8620189707555002</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4258,21 +4327,21 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -4287,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8556704519997397</v>
+        <v>0.854458629423136</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -4299,21 +4368,21 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -4340,21 +4409,21 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -4369,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8267675458594644</v>
+        <v>0.8267675458594642</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -4381,16 +4450,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4408,48 +4477,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4464,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9631741341468324</v>
+        <v>0.9629235813617143</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4476,21 +4545,21 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -4517,21 +4586,21 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -4558,21 +4627,21 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -4599,21 +4668,21 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -4640,21 +4709,21 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -4669,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9088969806014524</v>
+        <v>0.9081728762083708</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4681,21 +4750,21 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -4710,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9032561886619538</v>
+        <v>0.9031810104370205</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4722,21 +4791,21 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -4751,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9020419847651791</v>
+        <v>0.9008930292196824</v>
       </c>
       <c r="G9">
         <v>22</v>
@@ -4763,21 +4832,21 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -4804,21 +4873,21 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -4833,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9224031092247386</v>
+        <v>0.9224031092247383</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4845,16 +4914,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/36_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/36_11R22.xlsx
@@ -162,40 +162,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -205,9 +208,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -698,16 +698,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0686127609292579</v>
+        <v>0.06609880608426172</v>
       </c>
       <c r="F2">
-        <v>0.04575482821899235</v>
+        <v>0.02807758862582222</v>
       </c>
       <c r="G2">
-        <v>0.04656719414503362</v>
+        <v>0.02942885437331349</v>
       </c>
       <c r="H2">
-        <v>0.02423677008401794</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -716,43 +716,43 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.04934558300662305</v>
+        <v>0.03405034523294645</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1043371543250426</v>
+        <v>0.1255217183436001</v>
       </c>
       <c r="N2">
-        <v>0.1321227160547354</v>
+        <v>0.171739409948541</v>
       </c>
       <c r="O2">
-        <v>0.06662684724466561</v>
+        <v>0.0627954952812833</v>
       </c>
       <c r="P2">
-        <v>0.03835675015013473</v>
+        <v>0.01577184170653839</v>
       </c>
       <c r="Q2">
-        <v>0.01987410333148021</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1250083305180633</v>
+        <v>0.1599055488990023</v>
       </c>
       <c r="S2">
-        <v>0.07073490790490125</v>
+        <v>0.0696287233634157</v>
       </c>
       <c r="T2">
-        <v>0.1713456354487663</v>
+        <v>0.2369816681412752</v>
       </c>
       <c r="U2">
-        <v>0.005456141697832585</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.001756555683892697</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.001667819519562667</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -770,22 +770,22 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01120970173517591</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0001025432142003312</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.002407474172185326</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.008174015320337222</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.006302167295098855</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1742354184455104</v>
+        <v>0.199715458992991</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0578070462280475</v>
+        <v>0.04605434009984664</v>
       </c>
       <c r="G3">
-        <v>0.03273173648275989</v>
+        <v>0.01296017173978138</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.07604829862742403</v>
+        <v>0.07012898101696872</v>
       </c>
       <c r="L3">
-        <v>0.08226775038432167</v>
+        <v>0.07833735752919727</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2482195011548685</v>
+        <v>0.2973589861924357</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.08077288568139354</v>
+        <v>0.07636444853398457</v>
       </c>
       <c r="R3">
-        <v>0.0089538901271882</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1731165947909638</v>
+        <v>0.1982388455926024</v>
       </c>
       <c r="T3">
-        <v>0.007123072366088484</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.03870331721501471</v>
+        <v>0.02084141030219245</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02002048849641911</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2010968914982971</v>
+        <v>0.257834991782686</v>
       </c>
       <c r="E4">
-        <v>0.01490544060632895</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.06750471738553267</v>
+        <v>0.05734774162254026</v>
       </c>
       <c r="G4">
-        <v>0.05739671092208224</v>
+        <v>0.04217824210719011</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -942,37 +942,37 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.03186995670315262</v>
+        <v>0.003869195990856959</v>
       </c>
       <c r="L4">
-        <v>0.1073618189858041</v>
+        <v>0.1171629272968669</v>
       </c>
       <c r="M4">
-        <v>0.003983506308799339</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1756856306995519</v>
+        <v>0.2196992713748246</v>
       </c>
       <c r="O4">
-        <v>0.00300453413719141</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.003401374211395484</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.08362006539456886</v>
+        <v>0.08153270476999412</v>
       </c>
       <c r="R4">
-        <v>0.001748075775204997</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1761358440872627</v>
+        <v>0.2203749250550412</v>
       </c>
       <c r="T4">
-        <v>0.01134623968146063</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.02411956097933575</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001751053915940439</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01819967984224239</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0007468727978889866</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.007138821817080101</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.004537333655908219</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.001056764192830232</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.003389106402140555</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1037,16 +1037,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1541628131484201</v>
+        <v>0.2008160853258724</v>
       </c>
       <c r="F5">
-        <v>0.03222045530061862</v>
+        <v>0.00376799859757768</v>
       </c>
       <c r="G5">
-        <v>0.06923477354790811</v>
+        <v>0.06357986972183358</v>
       </c>
       <c r="H5">
-        <v>0.04566599958926767</v>
+        <v>0.02549481136271736</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1058,49 +1058,49 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05003886540747092</v>
+        <v>0.03256097654276062</v>
       </c>
       <c r="M5">
-        <v>0.1067209985233746</v>
+        <v>0.1241543004647705</v>
       </c>
       <c r="N5">
-        <v>0.01726243398042559</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1565660494521816</v>
+        <v>0.2046995030649587</v>
       </c>
       <c r="P5">
-        <v>0.00529814746444453</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.09669002107317089</v>
+        <v>0.1079451263150931</v>
       </c>
       <c r="S5">
-        <v>0.001296359400966672</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.1688257495630295</v>
+        <v>0.2245100963103378</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.03760641390327744</v>
+        <v>0.01247123229407827</v>
       </c>
       <c r="W5">
-        <v>0.006030833639307723</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0005486790121896614</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.004116565498450706</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02605534469217938</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00552974626126021</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.008179395574524463</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.00590438203504703</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002045972932484763</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03727619252779396</v>
+        <v>0.01426311936157165</v>
       </c>
       <c r="E6">
-        <v>0.02755744078331953</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07848172218495612</v>
+        <v>0.09000552828078598</v>
       </c>
       <c r="G6">
-        <v>0.09273359904196728</v>
+        <v>0.1162027764111081</v>
       </c>
       <c r="H6">
-        <v>0.03143264198529128</v>
+        <v>0.003521731047602918</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1168,67 +1168,67 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03795388468331117</v>
+        <v>0.01550882683800999</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.05843652509684095</v>
+        <v>0.0531592232497241</v>
       </c>
       <c r="N6">
-        <v>0.1751065201601716</v>
+        <v>0.267617490094342</v>
       </c>
       <c r="O6">
-        <v>0.06038672559045568</v>
+        <v>0.05674400627498356</v>
       </c>
       <c r="P6">
-        <v>0.01393201631515403</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01909479601604271</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1137732010653421</v>
+        <v>0.1548769580855329</v>
       </c>
       <c r="S6">
-        <v>0.03904057395862865</v>
+        <v>0.01750633698152818</v>
       </c>
       <c r="T6">
-        <v>0.1331811985731258</v>
+        <v>0.1905519875237755</v>
       </c>
       <c r="U6">
-        <v>0.01646524279773821</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.00533943208636769</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001493223751211693</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.003050751023195148</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001660938950354305</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.007831050865909574</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.04042003880995049</v>
+        <v>0.02004201585103498</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.006696185108962536</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1985473924213368</v>
+        <v>0.2742784046394571</v>
       </c>
       <c r="F7">
-        <v>0.005101787419637196</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.08050874997040595</v>
+        <v>0.08232054434371507</v>
       </c>
       <c r="H7">
-        <v>0.06161011237403859</v>
+        <v>0.05158703233292239</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1284,64 +1284,64 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.01363403739148512</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.03385592084497761</v>
+        <v>0.006452361944185293</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1810691619223755</v>
+        <v>0.2458547998040228</v>
       </c>
       <c r="P7">
-        <v>0.004600322539753047</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.007064602081749545</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.09127609423561071</v>
+        <v>0.09983071155082729</v>
       </c>
       <c r="S7">
-        <v>0.02374667122856789</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1476008547311451</v>
+        <v>0.1914276689699836</v>
       </c>
       <c r="U7">
-        <v>0.05955716904728781</v>
+        <v>0.0482484764148863</v>
       </c>
       <c r="V7">
-        <v>0.004199792936945584</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.0008077413672439459</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.001524316532890242</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.004257299147099615</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0006508100865418415</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02726233453420962</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.02815043782670638</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.000173241666950669</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.01559189860110195</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.009209251091939272</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2146729498946748</v>
+        <v>0.2662759745040201</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.09836674379242427</v>
+        <v>0.09996719922798628</v>
       </c>
       <c r="H8">
-        <v>0.05753799901123144</v>
+        <v>0.04158528850992575</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.005858630842331806</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.01070541298296828</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2487839635185585</v>
+        <v>0.3150520552423499</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.09375220104402392</v>
+        <v>0.0933687641258158</v>
       </c>
       <c r="S8">
-        <v>0.0130028627102294</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.1193382069590577</v>
+        <v>0.129954750811631</v>
       </c>
       <c r="U8">
-        <v>0.04116203968152032</v>
+        <v>0.01816894787458543</v>
       </c>
       <c r="V8">
-        <v>0.0007725042661617533</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.00741806385248554</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.006387738020545844</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.05337114949507714</v>
+        <v>0.03562701970368579</v>
       </c>
       <c r="AD8">
-        <v>0.01957753014596072</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.003123374643741449</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.006168629139007296</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1492,16 +1492,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2012995936385467</v>
+        <v>0.2572707666126665</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1146834012171301</v>
+        <v>0.1280376236692687</v>
       </c>
       <c r="I9">
-        <v>0.05857417914270698</v>
+        <v>0.04432150877117409</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01234171527026523</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.009960752842055219</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.2524268287460093</v>
+        <v>0.3335536543526003</v>
       </c>
       <c r="Q9">
-        <v>0.00997725294674544</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0889950525148591</v>
+        <v>0.08971007835685668</v>
       </c>
       <c r="T9">
-        <v>0.02108651807590603</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.08511333502891195</v>
+        <v>0.08391847592429283</v>
       </c>
       <c r="V9">
-        <v>0.0377853508127321</v>
+        <v>0.01330414875929347</v>
       </c>
       <c r="W9">
-        <v>0.00385626589588992</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.004792783087924266</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.004342551124139999</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1564,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.06230216708183904</v>
+        <v>0.04988374355384726</v>
       </c>
       <c r="AE9">
-        <v>0.02117524721030511</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.004995023121101165</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.005275830795632859</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.001016151447299478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -1599,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2058690575867393</v>
+        <v>0.2523621028302667</v>
       </c>
       <c r="E10">
-        <v>0.01385346177905567</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1231859932522663</v>
+        <v>0.134728721082065</v>
       </c>
       <c r="G10">
-        <v>0.04799859003701601</v>
+        <v>0.02775943328091184</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.002534246016573016</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.01540691952877156</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.0494882835915782</v>
+        <v>0.0298788236542871</v>
       </c>
       <c r="N10">
-        <v>0.1935225821460045</v>
+        <v>0.2347967444288217</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1638,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.121486670972516</v>
+        <v>0.1323110914494904</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.1211312803700581</v>
+        <v>0.1318054764393895</v>
       </c>
       <c r="T10">
-        <v>0.01104131453465843</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.0001920229346389383</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1659,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.01198961236009588</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.002619800027992029</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.0680998962195022</v>
+        <v>0.05635760683476766</v>
       </c>
       <c r="AC10">
-        <v>0.005342565659115546</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.002844496327911531</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.003393206655507006</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2840343507306428</v>
+        <v>0.3276945204636373</v>
       </c>
       <c r="G11">
-        <v>0.01133975903524311</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1366065657235191</v>
+        <v>0.1432735371760379</v>
       </c>
       <c r="I11">
-        <v>0.04574116745677893</v>
+        <v>0.02960781199159024</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01188326891233009</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.01260817642006632</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.2289614408984115</v>
+        <v>0.2588024850628569</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1757,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.09559281668247228</v>
+        <v>0.09196844617100644</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.09563556336527408</v>
+        <v>0.09202191903078119</v>
       </c>
       <c r="V11">
-        <v>0.00171216326812884</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1790,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.06734396978444868</v>
+        <v>0.05663128010409012</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.008417195096861847</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.000123562625822308</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1954,103 +1954,103 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0686127609292579</v>
+        <v>0.06609880608426172</v>
       </c>
       <c r="F2">
-        <v>0.1143675891482503</v>
+        <v>0.09417639471008395</v>
       </c>
       <c r="G2">
-        <v>0.1609347832932839</v>
+        <v>0.1236052490833974</v>
       </c>
       <c r="H2">
-        <v>0.1851715533773018</v>
+        <v>0.1236052490833974</v>
       </c>
       <c r="I2">
-        <v>0.1851715533773018</v>
+        <v>0.1236052490833974</v>
       </c>
       <c r="J2">
-        <v>0.1851715533773018</v>
+        <v>0.1236052490833974</v>
       </c>
       <c r="K2">
-        <v>0.2345171363839249</v>
+        <v>0.1576555943163439</v>
       </c>
       <c r="L2">
-        <v>0.2345171363839249</v>
+        <v>0.1576555943163439</v>
       </c>
       <c r="M2">
-        <v>0.3388542907089675</v>
+        <v>0.2831773126599441</v>
       </c>
       <c r="N2">
-        <v>0.4709770067637029</v>
+        <v>0.454916722608485</v>
       </c>
       <c r="O2">
-        <v>0.5376038540083685</v>
+        <v>0.5177122178897683</v>
       </c>
       <c r="P2">
-        <v>0.5759606041585033</v>
+        <v>0.5334840595963066</v>
       </c>
       <c r="Q2">
-        <v>0.5958347074899835</v>
+        <v>0.5334840595963066</v>
       </c>
       <c r="R2">
-        <v>0.7208430380080467</v>
+        <v>0.693389608495309</v>
       </c>
       <c r="S2">
-        <v>0.7915779459129479</v>
+        <v>0.7630183318587247</v>
       </c>
       <c r="T2">
-        <v>0.9629235813617143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U2">
-        <v>0.9683797230595469</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V2">
-        <v>0.9701362787434396</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W2">
-        <v>0.9718040982630022</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X2">
-        <v>0.9718040982630022</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.9718040982630022</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.9718040982630022</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.9718040982630022</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.9718040982630022</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.9830137999981781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD2">
-        <v>0.9830137999981781</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.9831163432123784</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.9855238173845637</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>0.993697832704901</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2064,106 +2064,106 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1742354184455104</v>
+        <v>0.199715458992991</v>
       </c>
       <c r="E3">
-        <v>0.1742354184455104</v>
+        <v>0.199715458992991</v>
       </c>
       <c r="F3">
-        <v>0.2320424646735579</v>
+        <v>0.2457697990928376</v>
       </c>
       <c r="G3">
-        <v>0.2647742011563178</v>
+        <v>0.258729970832619</v>
       </c>
       <c r="H3">
-        <v>0.2647742011563178</v>
+        <v>0.258729970832619</v>
       </c>
       <c r="I3">
-        <v>0.2647742011563178</v>
+        <v>0.258729970832619</v>
       </c>
       <c r="J3">
-        <v>0.2647742011563178</v>
+        <v>0.258729970832619</v>
       </c>
       <c r="K3">
-        <v>0.3408224997837418</v>
+        <v>0.3288589518495877</v>
       </c>
       <c r="L3">
-        <v>0.4230902501680635</v>
+        <v>0.407196309378785</v>
       </c>
       <c r="M3">
-        <v>0.4230902501680635</v>
+        <v>0.407196309378785</v>
       </c>
       <c r="N3">
-        <v>0.671309751322932</v>
+        <v>0.7045552955712207</v>
       </c>
       <c r="O3">
-        <v>0.671309751322932</v>
+        <v>0.7045552955712207</v>
       </c>
       <c r="P3">
-        <v>0.671309751322932</v>
+        <v>0.7045552955712207</v>
       </c>
       <c r="Q3">
-        <v>0.7520826370043255</v>
+        <v>0.7809197441052053</v>
       </c>
       <c r="R3">
-        <v>0.7610365271315137</v>
+        <v>0.7809197441052053</v>
       </c>
       <c r="S3">
-        <v>0.9341531219224776</v>
+        <v>0.9791585896978077</v>
       </c>
       <c r="T3">
-        <v>0.941276194288566</v>
+        <v>0.9791585896978077</v>
       </c>
       <c r="U3">
-        <v>0.9799795115035808</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.9799795115035808</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9799795115035808</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.9799795115035808</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.9799795115035808</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0.9799795115035808</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.9799795115035808</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -2177,106 +2177,106 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2010968914982971</v>
+        <v>0.257834991782686</v>
       </c>
       <c r="E4">
-        <v>0.2160023321046261</v>
+        <v>0.257834991782686</v>
       </c>
       <c r="F4">
-        <v>0.2835070494901588</v>
+        <v>0.3151827334052263</v>
       </c>
       <c r="G4">
-        <v>0.340903760412241</v>
+        <v>0.3573609755124164</v>
       </c>
       <c r="H4">
-        <v>0.340903760412241</v>
+        <v>0.3573609755124164</v>
       </c>
       <c r="I4">
-        <v>0.340903760412241</v>
+        <v>0.3573609755124164</v>
       </c>
       <c r="J4">
-        <v>0.340903760412241</v>
+        <v>0.3573609755124164</v>
       </c>
       <c r="K4">
-        <v>0.3727737171153936</v>
+        <v>0.3612301715032734</v>
       </c>
       <c r="L4">
-        <v>0.4801355361011978</v>
+        <v>0.4783930988001402</v>
       </c>
       <c r="M4">
-        <v>0.4841190424099971</v>
+        <v>0.4783930988001402</v>
       </c>
       <c r="N4">
-        <v>0.659804673109549</v>
+        <v>0.6980923701749648</v>
       </c>
       <c r="O4">
-        <v>0.6628092072467404</v>
+        <v>0.6980923701749648</v>
       </c>
       <c r="P4">
-        <v>0.6662105814581359</v>
+        <v>0.6980923701749648</v>
       </c>
       <c r="Q4">
-        <v>0.7498306468527048</v>
+        <v>0.7796250749449589</v>
       </c>
       <c r="R4">
-        <v>0.7515787226279098</v>
+        <v>0.7796250749449589</v>
       </c>
       <c r="S4">
-        <v>0.9277145667151725</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.9390608063966331</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0.9631803673759689</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9631803673759689</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9631803673759689</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9649314212919093</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9649314212919093</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.9649314212919093</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9649314212919093</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9831311011341517</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9838779739320407</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9910167957491208</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9955541294050291</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9966108935978593</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2293,97 +2293,97 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1541628131484201</v>
+        <v>0.2008160853258724</v>
       </c>
       <c r="F5">
-        <v>0.1863832684490387</v>
+        <v>0.20458408392345</v>
       </c>
       <c r="G5">
-        <v>0.2556180419969468</v>
+        <v>0.2681639536452836</v>
       </c>
       <c r="H5">
-        <v>0.3012840415862145</v>
+        <v>0.293658765008001</v>
       </c>
       <c r="I5">
-        <v>0.3012840415862145</v>
+        <v>0.293658765008001</v>
       </c>
       <c r="J5">
-        <v>0.3012840415862145</v>
+        <v>0.293658765008001</v>
       </c>
       <c r="K5">
-        <v>0.3012840415862145</v>
+        <v>0.293658765008001</v>
       </c>
       <c r="L5">
-        <v>0.3513229069936854</v>
+        <v>0.3262197415507616</v>
       </c>
       <c r="M5">
-        <v>0.45804390551706</v>
+        <v>0.4503740420155321</v>
       </c>
       <c r="N5">
-        <v>0.4753063394974856</v>
+        <v>0.4503740420155321</v>
       </c>
       <c r="O5">
-        <v>0.6318723889496671</v>
+        <v>0.6550735450804909</v>
       </c>
       <c r="P5">
-        <v>0.6371705364141117</v>
+        <v>0.6550735450804909</v>
       </c>
       <c r="Q5">
-        <v>0.6371705364141117</v>
+        <v>0.6550735450804909</v>
       </c>
       <c r="R5">
-        <v>0.7338605574872826</v>
+        <v>0.7630186713955839</v>
       </c>
       <c r="S5">
-        <v>0.7351569168882492</v>
+        <v>0.7630186713955839</v>
       </c>
       <c r="T5">
-        <v>0.9039826664512788</v>
+        <v>0.9875287677059217</v>
       </c>
       <c r="U5">
-        <v>0.9039826664512788</v>
+        <v>0.9875287677059217</v>
       </c>
       <c r="V5">
-        <v>0.9415890803545562</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9476199139938639</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9476199139938639</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9481685930060536</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9522851585045043</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9522851585045043</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9522851585045043</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9783405031966838</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.983870249457944</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9920496450324685</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9920496450324685</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9920496450324685</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9979540270675156</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9979540270675156</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -2403,106 +2403,106 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03727619252779396</v>
+        <v>0.01426311936157165</v>
       </c>
       <c r="E6">
-        <v>0.0648336333111135</v>
+        <v>0.01426311936157165</v>
       </c>
       <c r="F6">
-        <v>0.1433153554960696</v>
+        <v>0.1042686476423576</v>
       </c>
       <c r="G6">
-        <v>0.2360489545380369</v>
+        <v>0.2204714240534658</v>
       </c>
       <c r="H6">
-        <v>0.2674815965233281</v>
+        <v>0.2239931551010687</v>
       </c>
       <c r="I6">
-        <v>0.2674815965233281</v>
+        <v>0.2239931551010687</v>
       </c>
       <c r="J6">
-        <v>0.2674815965233281</v>
+        <v>0.2239931551010687</v>
       </c>
       <c r="K6">
-        <v>0.3054354812066393</v>
+        <v>0.2395019819390787</v>
       </c>
       <c r="L6">
-        <v>0.3054354812066393</v>
+        <v>0.2395019819390787</v>
       </c>
       <c r="M6">
-        <v>0.3638720063034803</v>
+        <v>0.2926612051888028</v>
       </c>
       <c r="N6">
-        <v>0.5389785264636519</v>
+        <v>0.5602786952831449</v>
       </c>
       <c r="O6">
-        <v>0.5993652520541075</v>
+        <v>0.6170227015581284</v>
       </c>
       <c r="P6">
-        <v>0.6132972683692616</v>
+        <v>0.6170227015581284</v>
       </c>
       <c r="Q6">
-        <v>0.6323920643853043</v>
+        <v>0.6170227015581284</v>
       </c>
       <c r="R6">
-        <v>0.7461652654506464</v>
+        <v>0.7718996596436614</v>
       </c>
       <c r="S6">
-        <v>0.7852058394092751</v>
+        <v>0.7894059966251895</v>
       </c>
       <c r="T6">
-        <v>0.9183870379824008</v>
+        <v>0.979957984148965</v>
       </c>
       <c r="U6">
-        <v>0.934852280780139</v>
+        <v>0.979957984148965</v>
       </c>
       <c r="V6">
-        <v>0.9401917128665067</v>
+        <v>0.979957984148965</v>
       </c>
       <c r="W6">
-        <v>0.9403410352416279</v>
+        <v>0.979957984148965</v>
       </c>
       <c r="X6">
-        <v>0.9403410352416279</v>
+        <v>0.979957984148965</v>
       </c>
       <c r="Y6">
-        <v>0.9433917862648231</v>
+        <v>0.979957984148965</v>
       </c>
       <c r="Z6">
-        <v>0.9450527252151775</v>
+        <v>0.979957984148965</v>
       </c>
       <c r="AA6">
-        <v>0.9450527252151775</v>
+        <v>0.979957984148965</v>
       </c>
       <c r="AB6">
-        <v>0.9528837760810871</v>
+        <v>0.979957984148965</v>
       </c>
       <c r="AC6">
-        <v>0.9933038148910376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD6">
-        <v>0.9933038148910376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2519,94 +2519,94 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1985473924213368</v>
+        <v>0.2742784046394571</v>
       </c>
       <c r="F7">
-        <v>0.203649179840974</v>
+        <v>0.2742784046394571</v>
       </c>
       <c r="G7">
-        <v>0.2841579298113799</v>
+        <v>0.3565989489831722</v>
       </c>
       <c r="H7">
-        <v>0.3457680421854185</v>
+        <v>0.4081859813160946</v>
       </c>
       <c r="I7">
-        <v>0.3457680421854185</v>
+        <v>0.4081859813160946</v>
       </c>
       <c r="J7">
-        <v>0.3457680421854185</v>
+        <v>0.4081859813160946</v>
       </c>
       <c r="K7">
-        <v>0.3457680421854185</v>
+        <v>0.4081859813160946</v>
       </c>
       <c r="L7">
-        <v>0.3594020795769036</v>
+        <v>0.4081859813160946</v>
       </c>
       <c r="M7">
-        <v>0.3932580004218812</v>
+        <v>0.4146383432602799</v>
       </c>
       <c r="N7">
-        <v>0.3932580004218812</v>
+        <v>0.4146383432602799</v>
       </c>
       <c r="O7">
-        <v>0.5743271623442567</v>
+        <v>0.6604931430643027</v>
       </c>
       <c r="P7">
-        <v>0.5789274848840098</v>
+        <v>0.6604931430643027</v>
       </c>
       <c r="Q7">
-        <v>0.5859920869657593</v>
+        <v>0.6604931430643027</v>
       </c>
       <c r="R7">
-        <v>0.67726818120137</v>
+        <v>0.7603238546151301</v>
       </c>
       <c r="S7">
-        <v>0.7010148524299379</v>
+        <v>0.7603238546151301</v>
       </c>
       <c r="T7">
-        <v>0.848615707161083</v>
+        <v>0.9517515235851137</v>
       </c>
       <c r="U7">
-        <v>0.9081728762083708</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.9123726691453165</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9123726691453165</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9131804105125604</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9147047270454506</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9189620261925502</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9189620261925502</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9196128362790921</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9468751708133017</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9750256086400081</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9751988503069587</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9751988503069587</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9751988503069587</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9907907489080607</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2632,91 +2632,91 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2146729498946748</v>
+        <v>0.2662759745040201</v>
       </c>
       <c r="F8">
-        <v>0.2146729498946748</v>
+        <v>0.2662759745040201</v>
       </c>
       <c r="G8">
-        <v>0.3130396936870991</v>
+        <v>0.3662431737320064</v>
       </c>
       <c r="H8">
-        <v>0.3705776926983305</v>
+        <v>0.4078284622419322</v>
       </c>
       <c r="I8">
-        <v>0.3705776926983305</v>
+        <v>0.4078284622419322</v>
       </c>
       <c r="J8">
-        <v>0.3705776926983305</v>
+        <v>0.4078284622419322</v>
       </c>
       <c r="K8">
-        <v>0.3705776926983305</v>
+        <v>0.4078284622419322</v>
       </c>
       <c r="L8">
-        <v>0.3764363235406623</v>
+        <v>0.4078284622419322</v>
       </c>
       <c r="M8">
-        <v>0.3871417365236306</v>
+        <v>0.4078284622419322</v>
       </c>
       <c r="N8">
-        <v>0.3871417365236306</v>
+        <v>0.4078284622419322</v>
       </c>
       <c r="O8">
-        <v>0.6359257000421891</v>
+        <v>0.7228805174842821</v>
       </c>
       <c r="P8">
-        <v>0.6359257000421891</v>
+        <v>0.7228805174842821</v>
       </c>
       <c r="Q8">
-        <v>0.6359257000421891</v>
+        <v>0.7228805174842821</v>
       </c>
       <c r="R8">
-        <v>0.729677901086213</v>
+        <v>0.8162492816100979</v>
       </c>
       <c r="S8">
-        <v>0.7426807637964424</v>
+        <v>0.8162492816100979</v>
       </c>
       <c r="T8">
-        <v>0.8620189707555002</v>
+        <v>0.9462040324217289</v>
       </c>
       <c r="U8">
-        <v>0.9031810104370205</v>
+        <v>0.9643729802963144</v>
       </c>
       <c r="V8">
-        <v>0.9039535147031822</v>
+        <v>0.9643729802963144</v>
       </c>
       <c r="W8">
-        <v>0.9039535147031822</v>
+        <v>0.9643729802963144</v>
       </c>
       <c r="X8">
-        <v>0.9039535147031822</v>
+        <v>0.9643729802963144</v>
       </c>
       <c r="Y8">
-        <v>0.9113715785556677</v>
+        <v>0.9643729802963144</v>
       </c>
       <c r="Z8">
-        <v>0.9177593165762136</v>
+        <v>0.9643729802963144</v>
       </c>
       <c r="AA8">
-        <v>0.9177593165762136</v>
+        <v>0.9643729802963144</v>
       </c>
       <c r="AB8">
-        <v>0.9177593165762136</v>
+        <v>0.9643729802963144</v>
       </c>
       <c r="AC8">
-        <v>0.9711304660712907</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9907079962172515</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9938313708609929</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9938313708609929</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9938313708609929</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -2748,100 +2748,100 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2012995936385467</v>
+        <v>0.2572707666126665</v>
       </c>
       <c r="G9">
-        <v>0.2012995936385467</v>
+        <v>0.2572707666126665</v>
       </c>
       <c r="H9">
-        <v>0.3159829948556768</v>
+        <v>0.3853083902819352</v>
       </c>
       <c r="I9">
-        <v>0.3745571739983838</v>
+        <v>0.4296298990531093</v>
       </c>
       <c r="J9">
-        <v>0.3745571739983838</v>
+        <v>0.4296298990531093</v>
       </c>
       <c r="K9">
-        <v>0.3745571739983838</v>
+        <v>0.4296298990531093</v>
       </c>
       <c r="L9">
-        <v>0.386898889268649</v>
+        <v>0.4296298990531093</v>
       </c>
       <c r="M9">
-        <v>0.3968596421107042</v>
+        <v>0.4296298990531093</v>
       </c>
       <c r="N9">
-        <v>0.3968596421107042</v>
+        <v>0.4296298990531093</v>
       </c>
       <c r="O9">
-        <v>0.3968596421107042</v>
+        <v>0.4296298990531093</v>
       </c>
       <c r="P9">
-        <v>0.6492864708567135</v>
+        <v>0.7631835534057096</v>
       </c>
       <c r="Q9">
-        <v>0.659263723803459</v>
+        <v>0.7631835534057096</v>
       </c>
       <c r="R9">
-        <v>0.659263723803459</v>
+        <v>0.7631835534057096</v>
       </c>
       <c r="S9">
-        <v>0.7482587763183181</v>
+        <v>0.8528936317625664</v>
       </c>
       <c r="T9">
-        <v>0.7693452943942241</v>
+        <v>0.8528936317625664</v>
       </c>
       <c r="U9">
-        <v>0.854458629423136</v>
+        <v>0.9368121076868592</v>
       </c>
       <c r="V9">
-        <v>0.8922439802358682</v>
+        <v>0.9501162564461526</v>
       </c>
       <c r="W9">
-        <v>0.8961002461317581</v>
+        <v>0.9501162564461526</v>
       </c>
       <c r="X9">
-        <v>0.8961002461317581</v>
+        <v>0.9501162564461526</v>
       </c>
       <c r="Y9">
-        <v>0.8961002461317581</v>
+        <v>0.9501162564461526</v>
       </c>
       <c r="Z9">
-        <v>0.9008930292196824</v>
+        <v>0.9501162564461526</v>
       </c>
       <c r="AA9">
-        <v>0.9052355803438223</v>
+        <v>0.9501162564461526</v>
       </c>
       <c r="AB9">
-        <v>0.9052355803438223</v>
+        <v>0.9501162564461526</v>
       </c>
       <c r="AC9">
-        <v>0.9052355803438223</v>
+        <v>0.9501162564461526</v>
       </c>
       <c r="AD9">
-        <v>0.9675377474256613</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.9887129946359665</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.9937080177570676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.9937080177570676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.9937080177570676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.9989838485527005</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.9989838485527005</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:37">
@@ -2855,106 +2855,106 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2058690575867393</v>
+        <v>0.2523621028302667</v>
       </c>
       <c r="E10">
-        <v>0.219722519365795</v>
+        <v>0.2523621028302667</v>
       </c>
       <c r="F10">
-        <v>0.3429085126180612</v>
+        <v>0.3870908239123317</v>
       </c>
       <c r="G10">
-        <v>0.3909071026550772</v>
+        <v>0.4148502571932436</v>
       </c>
       <c r="H10">
-        <v>0.3909071026550772</v>
+        <v>0.4148502571932436</v>
       </c>
       <c r="I10">
-        <v>0.3909071026550772</v>
+        <v>0.4148502571932436</v>
       </c>
       <c r="J10">
-        <v>0.3909071026550772</v>
+        <v>0.4148502571932436</v>
       </c>
       <c r="K10">
-        <v>0.3934413486716503</v>
+        <v>0.4148502571932436</v>
       </c>
       <c r="L10">
-        <v>0.4088482682004218</v>
+        <v>0.4148502571932436</v>
       </c>
       <c r="M10">
-        <v>0.458336551792</v>
+        <v>0.4447290808475307</v>
       </c>
       <c r="N10">
-        <v>0.6518591339380044</v>
+        <v>0.6795258252763524</v>
       </c>
       <c r="O10">
-        <v>0.6518591339380044</v>
+        <v>0.6795258252763524</v>
       </c>
       <c r="P10">
-        <v>0.6518591339380044</v>
+        <v>0.6795258252763524</v>
       </c>
       <c r="Q10">
-        <v>0.7733458049105204</v>
+        <v>0.8118369167258428</v>
       </c>
       <c r="R10">
-        <v>0.7733458049105204</v>
+        <v>0.8118369167258428</v>
       </c>
       <c r="S10">
-        <v>0.8944770852805786</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="T10">
-        <v>0.905518399815237</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="U10">
-        <v>0.9057104227498759</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="V10">
-        <v>0.9057104227498759</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="W10">
-        <v>0.9057104227498759</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="X10">
-        <v>0.9177000351099718</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="Y10">
-        <v>0.9203198351379638</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="Z10">
-        <v>0.9203198351379638</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="AA10">
-        <v>0.9203198351379638</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="AB10">
-        <v>0.988419731357466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.9937622970165815</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD10">
-        <v>0.996606793344493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE10">
-        <v>0.996606793344493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.996606793344493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:37">
@@ -2974,91 +2974,91 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2840343507306428</v>
+        <v>0.3276945204636373</v>
       </c>
       <c r="G11">
-        <v>0.2953741097658859</v>
+        <v>0.3276945204636373</v>
       </c>
       <c r="H11">
-        <v>0.431980675489405</v>
+        <v>0.4709680576396752</v>
       </c>
       <c r="I11">
-        <v>0.4777218429461839</v>
+        <v>0.5005758696312654</v>
       </c>
       <c r="J11">
-        <v>0.4777218429461839</v>
+        <v>0.5005758696312654</v>
       </c>
       <c r="K11">
-        <v>0.4777218429461839</v>
+        <v>0.5005758696312654</v>
       </c>
       <c r="L11">
-        <v>0.489605111858514</v>
+        <v>0.5005758696312654</v>
       </c>
       <c r="M11">
-        <v>0.5022132882785804</v>
+        <v>0.5005758696312654</v>
       </c>
       <c r="N11">
-        <v>0.5022132882785804</v>
+        <v>0.5005758696312654</v>
       </c>
       <c r="O11">
-        <v>0.5022132882785804</v>
+        <v>0.5005758696312654</v>
       </c>
       <c r="P11">
-        <v>0.7311747291769919</v>
+        <v>0.7593783546941223</v>
       </c>
       <c r="Q11">
-        <v>0.7311747291769919</v>
+        <v>0.7593783546941223</v>
       </c>
       <c r="R11">
-        <v>0.7311747291769919</v>
+        <v>0.7593783546941223</v>
       </c>
       <c r="S11">
-        <v>0.8267675458594642</v>
+        <v>0.8513468008651287</v>
       </c>
       <c r="T11">
-        <v>0.8267675458594642</v>
+        <v>0.8513468008651287</v>
       </c>
       <c r="U11">
-        <v>0.9224031092247383</v>
+        <v>0.9433687198959099</v>
       </c>
       <c r="V11">
-        <v>0.9241152724928672</v>
+        <v>0.9433687198959099</v>
       </c>
       <c r="W11">
-        <v>0.9241152724928672</v>
+        <v>0.9433687198959099</v>
       </c>
       <c r="X11">
-        <v>0.9241152724928672</v>
+        <v>0.9433687198959099</v>
       </c>
       <c r="Y11">
-        <v>0.9241152724928672</v>
+        <v>0.9433687198959099</v>
       </c>
       <c r="Z11">
-        <v>0.9241152724928672</v>
+        <v>0.9433687198959099</v>
       </c>
       <c r="AA11">
-        <v>0.9241152724928672</v>
+        <v>0.9433687198959099</v>
       </c>
       <c r="AB11">
-        <v>0.9241152724928672</v>
+        <v>0.9433687198959099</v>
       </c>
       <c r="AC11">
-        <v>0.9241152724928672</v>
+        <v>0.9433687198959099</v>
       </c>
       <c r="AD11">
-        <v>0.9914592422773159</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9914592422773159</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9998764373741778</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9998764373741778</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9998764373741778</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3129,34 +3129,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5177122178897683</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5376038540083685</v>
-      </c>
       <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>36</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3170,34 +3170,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.7045552955712207</v>
+      </c>
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.671309751322932</v>
-      </c>
       <c r="G3">
+        <v>700</v>
+      </c>
+      <c r="H3">
         <v>12</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>36</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3211,34 +3211,34 @@
         <v>39</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.6980923701749648</v>
+      </c>
+      <c r="F4">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.659804673109549</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>36</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3252,34 +3252,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.6550735450804909</v>
+      </c>
+      <c r="F5">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.6318723889496671</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>36</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3293,34 +3293,34 @@
         <v>41</v>
       </c>
       <c r="B6">
+        <v>0.01426311936157165</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.5602786952831449</v>
+      </c>
+      <c r="F6">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5389785264636519</v>
-      </c>
       <c r="G6">
-        <v>11</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>36</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3334,34 +3334,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.6604931430643027</v>
+      </c>
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5743271623442567</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>36</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3375,34 +3375,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.7228805174842821</v>
+      </c>
+      <c r="F8">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.6359257000421891</v>
-      </c>
       <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>36</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3416,34 +3416,34 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.7631835534057096</v>
+      </c>
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.6492864708567135</v>
-      </c>
       <c r="G9">
+        <v>700</v>
+      </c>
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>36</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3457,34 +3457,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.6795258252763524</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.6518591339380044</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>36</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3498,34 +3498,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5005758696312654</v>
       </c>
       <c r="F11">
-        <v>0.5022132882785804</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>36</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -3593,34 +3593,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7630183318587247</v>
       </c>
       <c r="F2">
-        <v>0.7208430380080467</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>36</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -3634,34 +3634,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7045552955712207</v>
       </c>
       <c r="F3">
-        <v>0.7520826370043255</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>36</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -3675,34 +3675,34 @@
         <v>39</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.7796250749449589</v>
+      </c>
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7498306468527048</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>36</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -3716,34 +3716,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.7630186713955839</v>
+      </c>
+      <c r="F5">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7338605574872826</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>36</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -3757,34 +3757,34 @@
         <v>41</v>
       </c>
       <c r="B6">
+        <v>0.01426311936157165</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.7718996596436614</v>
+      </c>
+      <c r="F6">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7461652654506464</v>
-      </c>
       <c r="G6">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>36</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -3798,34 +3798,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7603238546151301</v>
       </c>
       <c r="F7">
-        <v>0.7010148524299379</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>36</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -3839,34 +3839,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7228805174842821</v>
       </c>
       <c r="F8">
-        <v>0.729677901086213</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>36</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -3880,34 +3880,34 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7631835534057096</v>
       </c>
       <c r="F9">
-        <v>0.7482587763183181</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>36</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -3921,34 +3921,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.8118369167258428</v>
+      </c>
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7733458049105204</v>
-      </c>
       <c r="G10">
+        <v>700</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>36</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -3962,34 +3962,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.7593783546941223</v>
+      </c>
+      <c r="F11">
         <v>15</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7311747291769919</v>
-      </c>
       <c r="G11">
+        <v>700</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>36</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4057,34 +4057,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9629235813617143</v>
-      </c>
       <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>36</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4098,34 +4098,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9791585896978077</v>
+      </c>
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9341531219224776</v>
-      </c>
       <c r="G3">
+        <v>700</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>36</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4139,34 +4139,34 @@
         <v>39</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9277145667151725</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>36</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4180,34 +4180,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.9875287677059217</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9039826664512788</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>36</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4221,34 +4221,34 @@
         <v>41</v>
       </c>
       <c r="B6">
+        <v>0.01426311936157165</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.979957984148965</v>
+      </c>
+      <c r="F6">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9183870379824008</v>
-      </c>
       <c r="G6">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>36</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4262,34 +4262,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.9517515235851137</v>
+      </c>
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.848615707161083</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>17</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>36</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4303,34 +4303,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8162492816100979</v>
       </c>
       <c r="F8">
-        <v>0.8620189707555002</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>36</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4344,34 +4344,34 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8528936317625664</v>
       </c>
       <c r="F9">
-        <v>0.854458629423136</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>36</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4385,34 +4385,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8118369167258428</v>
       </c>
       <c r="F10">
-        <v>0.8944770852805786</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>36</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4426,34 +4426,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.8513468008651287</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8267675458594642</v>
-      </c>
       <c r="G11">
+        <v>700</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>36</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
@@ -4521,34 +4521,34 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9629235813617143</v>
-      </c>
       <c r="G2">
+        <v>700</v>
+      </c>
+      <c r="H2">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
         <v>36</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>61</v>
@@ -4562,34 +4562,34 @@
         <v>38</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9791585896978077</v>
+      </c>
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9341531219224776</v>
-      </c>
       <c r="G3">
+        <v>700</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
         <v>36</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
@@ -4603,34 +4603,34 @@
         <v>39</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9277145667151725</v>
-      </c>
       <c r="G4">
+        <v>700</v>
+      </c>
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
         <v>36</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -4644,34 +4644,34 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>0.9875287677059217</v>
+      </c>
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9039826664512788</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
         <v>36</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
@@ -4685,34 +4685,34 @@
         <v>41</v>
       </c>
       <c r="B6">
+        <v>0.01426311936157165</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.979957984148965</v>
+      </c>
+      <c r="F6">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9183870379824008</v>
-      </c>
       <c r="G6">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6">
         <v>36</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
@@ -4726,34 +4726,34 @@
         <v>42</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9517515235851137</v>
       </c>
       <c r="F7">
-        <v>0.9081728762083708</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
         <v>36</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -4767,34 +4767,34 @@
         <v>43</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9462040324217289</v>
       </c>
       <c r="F8">
-        <v>0.9031810104370205</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8">
         <v>36</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4808,34 +4808,34 @@
         <v>44</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9368121076868592</v>
       </c>
       <c r="F9">
-        <v>0.9008930292196824</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
         <v>36</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
@@ -4849,34 +4849,34 @@
         <v>45</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9436423931652322</v>
       </c>
       <c r="F10">
-        <v>0.905518399815237</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10">
         <v>36</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
@@ -4890,34 +4890,34 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.9433687198959099</v>
+      </c>
+      <c r="F11">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9224031092247383</v>
-      </c>
       <c r="G11">
+        <v>700</v>
+      </c>
+      <c r="H11">
         <v>17</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>36</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
